--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/7/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/7/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>859.7778798871842</v>
+        <v>1050.740999840941</v>
       </c>
       <c r="C2" t="n">
-        <v>859777879.8871843</v>
+        <v>1050740999.840941</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>1033.82535858194</v>
+        <v>1204.418311396819</v>
       </c>
       <c r="C3" t="n">
-        <v>1033825358.58194</v>
+        <v>1204418311.396819</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>1101.368916347622</v>
+        <v>1253.787900306542</v>
       </c>
       <c r="C4" t="n">
-        <v>1101368916.347622</v>
+        <v>1253787900.306542</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>1145.408216429394</v>
+        <v>1284.760928379088</v>
       </c>
       <c r="C5" t="n">
-        <v>1145408216.429394</v>
+        <v>1284760928.379088</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>1178.499678760104</v>
+        <v>1307.547238808875</v>
       </c>
       <c r="C6" t="n">
-        <v>1178499678.760104</v>
+        <v>1307547238.808875</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1205.172379389209</v>
+        <v>1325.651080937372</v>
       </c>
       <c r="C7" t="n">
-        <v>1205172379.389209</v>
+        <v>1325651080.937372</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>1227.599190057495</v>
+        <v>1340.708711430569</v>
       </c>
       <c r="C8" t="n">
-        <v>1227599190.057495</v>
+        <v>1340708711.430569</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>1246.997604913075</v>
+        <v>1353.620401929364</v>
       </c>
       <c r="C9" t="n">
-        <v>1246997604.913075</v>
+        <v>1353620401.929364</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1264.121148113113</v>
+        <v>1364.935852210927</v>
       </c>
       <c r="C10" t="n">
-        <v>1264121148.113113</v>
+        <v>1364935852.210927</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1279.469845704318</v>
+        <v>1375.015958966023</v>
       </c>
       <c r="C11" t="n">
-        <v>1279469845.704318</v>
+        <v>1375015958.966023</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1293.393120305211</v>
+        <v>1384.110717501354</v>
       </c>
       <c r="C12" t="n">
-        <v>1293393120.305211</v>
+        <v>1384110717.501354</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1306.145113660195</v>
+        <v>1392.400610974851</v>
       </c>
       <c r="C13" t="n">
-        <v>1306145113.660195</v>
+        <v>1392400610.974851</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1317.916654943757</v>
+        <v>1400.020294804573</v>
       </c>
       <c r="C14" t="n">
-        <v>1317916654.943757</v>
+        <v>1400020294.804573</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1328.854811380848</v>
+        <v>1407.072962247691</v>
       </c>
       <c r="C15" t="n">
-        <v>1328854811.380848</v>
+        <v>1407072962.247691</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1339.075405627821</v>
+        <v>1413.639476901922</v>
       </c>
       <c r="C16" t="n">
-        <v>1339075405.62782</v>
+        <v>1413639476.901922</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1348.671339577426</v>
+        <v>1419.784407928088</v>
       </c>
       <c r="C17" t="n">
-        <v>1348671339.577426</v>
+        <v>1419784407.928088</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1357.718308743574</v>
+        <v>1425.560150441149</v>
       </c>
       <c r="C18" t="n">
-        <v>1357718308.743574</v>
+        <v>1425560150.441149</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1366.278833375985</v>
+        <v>1431.009817766376</v>
       </c>
       <c r="C19" t="n">
-        <v>1366278833.375984</v>
+        <v>1431009817.766376</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1374.405169706645</v>
+        <v>1436.169320826988</v>
       </c>
       <c r="C20" t="n">
-        <v>1374405169.706645</v>
+        <v>1436169320.826988</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1382.141455962224</v>
+        <v>1441.068894665933</v>
       </c>
       <c r="C21" t="n">
-        <v>1382141455.962224</v>
+        <v>1441068894.665933</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1389.525323089202</v>
+        <v>1445.73423987852</v>
       </c>
       <c r="C22" t="n">
-        <v>1389525323.089202</v>
+        <v>1445734239.87852</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1396.589123223338</v>
+        <v>1450.187390122863</v>
       </c>
       <c r="C23" t="n">
-        <v>1396589123.223338</v>
+        <v>1450187390.122863</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1403.360880121164</v>
+        <v>1454.447381109898</v>
       </c>
       <c r="C24" t="n">
-        <v>1403360880.121164</v>
+        <v>1454447381.109898</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1409.865034000875</v>
+        <v>1458.530773293576</v>
       </c>
       <c r="C25" t="n">
-        <v>1409865034.000875</v>
+        <v>1458530773.293576</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1416.123032091532</v>
+        <v>1462.45206510992</v>
       </c>
       <c r="C26" t="n">
-        <v>1416123032.091532</v>
+        <v>1462452065.10992</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1422.153801823855</v>
+        <v>1466.224023209022</v>
       </c>
       <c r="C27" t="n">
-        <v>1422153801.823855</v>
+        <v>1466224023.209022</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1427.974133657465</v>
+        <v>1469.857948949727</v>
       </c>
       <c r="C28" t="n">
-        <v>1427974133.657465</v>
+        <v>1469857948.949727</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1433.598993548553</v>
+        <v>1473.363895395918</v>
       </c>
       <c r="C29" t="n">
-        <v>1433598993.548553</v>
+        <v>1473363895.395918</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1439.041780069321</v>
+        <v>1476.750845470893</v>
       </c>
       <c r="C30" t="n">
-        <v>1439041780.069321</v>
+        <v>1476750845.470893</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1444.314537574972</v>
+        <v>1480.026859339166</v>
       </c>
       <c r="C31" t="n">
-        <v>1444314537.574972</v>
+        <v>1480026859.339166</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1449.428134162035</v>
+        <v>1483.199197192281</v>
       </c>
       <c r="C32" t="n">
-        <v>1449428134.162035</v>
+        <v>1483199197.192281</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1454.392411193535</v>
+        <v>1486.27442221392</v>
       </c>
       <c r="C33" t="n">
-        <v>1454392411.193535</v>
+        <v>1486274422.21392</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1459.216309689482</v>
+        <v>1489.258487450468</v>
       </c>
       <c r="C34" t="n">
-        <v>1459216309.689482</v>
+        <v>1489258487.450468</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1463.907977761653</v>
+        <v>1492.156809519808</v>
       </c>
       <c r="C35" t="n">
-        <v>1463907977.761653</v>
+        <v>1492156809.519808</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1468.474862414844</v>
+        <v>1494.97433148521</v>
       </c>
       <c r="C36" t="n">
-        <v>1468474862.414844</v>
+        <v>1494974331.48521</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1472.923788375388</v>
+        <v>1497.715576754379</v>
       </c>
       <c r="C37" t="n">
-        <v>1472923788.375388</v>
+        <v>1497715576.754379</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1477.26102609289</v>
+        <v>1500.384695501095</v>
       </c>
       <c r="C38" t="n">
-        <v>1477261026.09289</v>
+        <v>1500384695.501095</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1481.492350657189</v>
+        <v>1502.985504822897</v>
       </c>
       <c r="C39" t="n">
-        <v>1481492350.657189</v>
+        <v>1502985504.822897</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1485.623093053482</v>
+        <v>1505.521523624281</v>
       </c>
       <c r="C40" t="n">
-        <v>1485623093.053482</v>
+        <v>1505521523.624281</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1489.658184924527</v>
+        <v>1507.996003036974</v>
       </c>
       <c r="C41" t="n">
-        <v>1489658184.924527</v>
+        <v>1507996003.036974</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1493.60219780556</v>
+        <v>1510.41195304663</v>
       </c>
       <c r="C42" t="n">
-        <v>1493602197.80556</v>
+        <v>1510411953.04663</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1497.459377633678</v>
+        <v>1512.772165880868</v>
       </c>
       <c r="C43" t="n">
-        <v>1497459377.633678</v>
+        <v>1512772165.880867</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1501.233675200699</v>
+        <v>1515.079236621006</v>
       </c>
       <c r="C44" t="n">
-        <v>1501233675.200699</v>
+        <v>1515079236.621006</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1504.92877311031</v>
+        <v>1517.335581424528</v>
       </c>
       <c r="C45" t="n">
-        <v>1504928773.11031</v>
+        <v>1517335581.424528</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1508.548109711693</v>
+        <v>1519.543453683723</v>
       </c>
       <c r="C46" t="n">
-        <v>1508548109.711693</v>
+        <v>1519543453.683723</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1512.094900408922</v>
+        <v>1521.704958395292</v>
       </c>
       <c r="C47" t="n">
-        <v>1512094900.408922</v>
+        <v>1521704958.395292</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1515.57215668504</v>
+        <v>1523.822064973909</v>
       </c>
       <c r="C48" t="n">
-        <v>1515572156.68504</v>
+        <v>1523822064.973909</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1518.982703129693</v>
+        <v>1525.896618708035</v>
       </c>
       <c r="C49" t="n">
-        <v>1518982703.129694</v>
+        <v>1525896618.708035</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1522.329192717316</v>
+        <v>1527.930351027355</v>
       </c>
       <c r="C50" t="n">
-        <v>1522329192.717316</v>
+        <v>1527930351.027355</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1525.614120547912</v>
+        <v>1529.924888727056</v>
       </c>
       <c r="C51" t="n">
-        <v>1525614120.547912</v>
+        <v>1529924888.727057</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1528.839836232985</v>
+        <v>1531.881762273825</v>
       </c>
       <c r="C52" t="n">
-        <v>1528839836.232985</v>
+        <v>1531881762.273824</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1532.008555084321</v>
+        <v>1533.802413301327</v>
       </c>
       <c r="C53" t="n">
-        <v>1532008555.084321</v>
+        <v>1533802413.301327</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1535.122368242292</v>
+        <v>1535.688201388452</v>
       </c>
       <c r="C54" t="n">
-        <v>1535122368.242292</v>
+        <v>1535688201.388452</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1538.18325186242</v>
+        <v>1537.540410201279</v>
       </c>
       <c r="C55" t="n">
-        <v>1538183251.86242</v>
+        <v>1537540410.201279</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1541.193075463689</v>
+        <v>1539.360253069259</v>
       </c>
       <c r="C56" t="n">
-        <v>1541193075.463689</v>
+        <v>1539360253.069259</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1544.153609529053</v>
+        <v>1541.148878057144</v>
       </c>
       <c r="C57" t="n">
-        <v>1544153609.529053</v>
+        <v>1541148878.057144</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1547.066532437342</v>
+        <v>1542.907372586509</v>
       </c>
       <c r="C58" t="n">
-        <v>1547066532.437342</v>
+        <v>1542907372.586509</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1549.933436796161</v>
+        <v>1544.636767654127</v>
       </c>
       <c r="C59" t="n">
-        <v>1549933436.796161</v>
+        <v>1544636767.654127</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1552.755835237036</v>
+        <v>1546.338041688746</v>
       </c>
       <c r="C60" t="n">
-        <v>1552755835.237036</v>
+        <v>1546338041.688746</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1555.535165726857</v>
+        <v>1548.012124082918</v>
       </c>
       <c r="C61" t="n">
-        <v>1555535165.726856</v>
+        <v>1548012124.082918</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1558.272796443436</v>
+        <v>1549.65989843224</v>
       </c>
       <c r="C62" t="n">
-        <v>1558272796.443436</v>
+        <v>1549659898.43224</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1560.97003025754</v>
+        <v>1551.282205510687</v>
       </c>
       <c r="C63" t="n">
-        <v>1560970030.25754</v>
+        <v>1551282205.510687</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1563.628108859028</v>
+        <v>1552.879846007469</v>
       </c>
       <c r="C64" t="n">
-        <v>1563628108.859028</v>
+        <v>1552879846.007469</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1566.248216560604</v>
+        <v>1554.453583048029</v>
       </c>
       <c r="C65" t="n">
-        <v>1566248216.560604</v>
+        <v>1554453583.048029</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1568.831483809008</v>
+        <v>1556.004144519346</v>
       </c>
       <c r="C66" t="n">
-        <v>1568831483.809008</v>
+        <v>1556004144.519346</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1571.378990430369</v>
+        <v>1557.532225217503</v>
       </c>
       <c r="C67" t="n">
-        <v>1571378990.430369</v>
+        <v>1557532225.217503</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1573.89176863355</v>
+        <v>1559.038488833649</v>
       </c>
       <c r="C68" t="n">
-        <v>1573891768.63355</v>
+        <v>1559038488.833649</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1576.370805792919</v>
+        <v>1560.523569792714</v>
       </c>
       <c r="C69" t="n">
-        <v>1576370805.792919</v>
+        <v>1560523569.792714</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1578.817047029756</v>
+        <v>1561.988074957852</v>
       </c>
       <c r="C70" t="n">
-        <v>1578817047.029756</v>
+        <v>1561988074.957852</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1581.231397609595</v>
+        <v>1563.432585212201</v>
       </c>
       <c r="C71" t="n">
-        <v>1581231397.609596</v>
+        <v>1563432585.212201</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1583.614725171068</v>
+        <v>1564.857656928454</v>
       </c>
       <c r="C72" t="n">
-        <v>1583614725.171068</v>
+        <v>1564857656.928454</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1585.967861800326</v>
+        <v>1566.263823335648</v>
       </c>
       <c r="C73" t="n">
-        <v>1585967861.800326</v>
+        <v>1566263823.335648</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1588.291605963733</v>
+        <v>1567.651595791716</v>
       </c>
       <c r="C74" t="n">
-        <v>1588291605.963732</v>
+        <v>1567651595.791716</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1590.586724310337</v>
+        <v>1569.021464969498</v>
       </c>
       <c r="C75" t="n">
-        <v>1590586724.310337</v>
+        <v>1569021464.969498</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1592.853953354543</v>
+        <v>1570.373901963196</v>
       </c>
       <c r="C76" t="n">
-        <v>1592853953.354543</v>
+        <v>1570373901.963197</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1595.094001048442</v>
+        <v>1571.709359321604</v>
       </c>
       <c r="C77" t="n">
-        <v>1595094001.048442</v>
+        <v>1571709359.321604</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1597.307548252405</v>
+        <v>1573.028272013857</v>
       </c>
       <c r="C78" t="n">
-        <v>1597307548.252405</v>
+        <v>1573028272.013857</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1599.495250111755</v>
+        <v>1574.331058332944</v>
       </c>
       <c r="C79" t="n">
-        <v>1599495250.111755</v>
+        <v>1574331058.332944</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1601.657737346659</v>
+        <v>1575.618120741735</v>
       </c>
       <c r="C80" t="n">
-        <v>1601657737.346659</v>
+        <v>1575618120.741735</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1603.795617461736</v>
+        <v>1576.889846665865</v>
       </c>
       <c r="C81" t="n">
-        <v>1603795617.461736</v>
+        <v>1576889846.665865</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1605.909475881323</v>
+        <v>1578.146609237446</v>
       </c>
       <c r="C82" t="n">
-        <v>1605909475.881324</v>
+        <v>1578146609.237446</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1607.999877015847</v>
+        <v>1579.388767993217</v>
       </c>
       <c r="C83" t="n">
-        <v>1607999877.015847</v>
+        <v>1579388767.993217</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1610.067365264253</v>
+        <v>1580.616669530467</v>
       </c>
       <c r="C84" t="n">
-        <v>1610067365.264253</v>
+        <v>1580616669.530467</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1612.112465957067</v>
+        <v>1581.83064812374</v>
       </c>
       <c r="C85" t="n">
-        <v>1612112465.957067</v>
+        <v>1581830648.12374</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1614.135686244281</v>
+        <v>1583.03102630513</v>
       </c>
       <c r="C86" t="n">
-        <v>1614135686.244281</v>
+        <v>1583031026.30513</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1616.137515931879</v>
+        <v>1584.218115410709</v>
       </c>
       <c r="C87" t="n">
-        <v>1616137515.931879</v>
+        <v>1584218115.410709</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1618.118428270571</v>
+        <v>1585.392216095438</v>
       </c>
       <c r="C88" t="n">
-        <v>1618118428.270571</v>
+        <v>1585392216.095438</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1620.078880699954</v>
+        <v>1586.553618818731</v>
       </c>
       <c r="C89" t="n">
-        <v>1620078880.699954</v>
+        <v>1586553618.818731</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1622.019315551128</v>
+        <v>1587.702604302644</v>
       </c>
       <c r="C90" t="n">
-        <v>1622019315.551128</v>
+        <v>1587702604.302644</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1623.940160710503</v>
+        <v>1588.83944396454</v>
       </c>
       <c r="C91" t="n">
-        <v>1623940160.710503</v>
+        <v>1588839443.96454</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1625.841830247374</v>
+        <v>1589.964400325914</v>
       </c>
       <c r="C92" t="n">
-        <v>1625841830.247374</v>
+        <v>1589964400.325914</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1627.724725007592</v>
+        <v>1591.077727398935</v>
       </c>
       <c r="C93" t="n">
-        <v>1627724725.007592</v>
+        <v>1591077727.398935</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1629.589233175545</v>
+        <v>1592.179671052164</v>
       </c>
       <c r="C94" t="n">
-        <v>1629589233.175545</v>
+        <v>1592179671.052164</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1631.435730806433</v>
+        <v>1593.270469356765</v>
       </c>
       <c r="C95" t="n">
-        <v>1631435730.806433</v>
+        <v>1593270469.356765</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1633.264582330729</v>
+        <v>1594.350352914462</v>
       </c>
       <c r="C96" t="n">
-        <v>1633264582.330729</v>
+        <v>1594350352.914462</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1635.076141032549</v>
+        <v>1595.419545168378</v>
       </c>
       <c r="C97" t="n">
-        <v>1635076141.032549</v>
+        <v>1595419545.168378</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1636.870749503541</v>
+        <v>1596.478262697821</v>
       </c>
       <c r="C98" t="n">
-        <v>1636870749.503541</v>
+        <v>1596478262.697821</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1638.648740073789</v>
+        <v>1597.526715498008</v>
       </c>
       <c r="C99" t="n">
-        <v>1638648740.073789</v>
+        <v>1597526715.498008</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1640.410435221108</v>
+        <v>1598.565107245637</v>
       </c>
       <c r="C100" t="n">
-        <v>1640410435.221108</v>
+        <v>1598565107.245637</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1642.156147960042</v>
+        <v>1599.593635551163</v>
       </c>
       <c r="C101" t="n">
-        <v>1642156147.960042</v>
+        <v>1599593635.551163</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1643.886182211744</v>
+        <v>1600.612492198568</v>
       </c>
       <c r="C102" t="n">
-        <v>1643886182.211744</v>
+        <v>1600612492.198568</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1645.600833155872</v>
+        <v>1601.621863373372</v>
       </c>
       <c r="C103" t="n">
-        <v>1645600833.155872</v>
+        <v>1601621863.373372</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1647.30038756554</v>
+        <v>1602.621929879549</v>
       </c>
       <c r="C104" t="n">
-        <v>1647300387.56554</v>
+        <v>1602621929.879549</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1648.985124126292</v>
+        <v>1603.612867346025</v>
       </c>
       <c r="C105" t="n">
-        <v>1648985124.126292</v>
+        <v>1603612867.346025</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1650.655313740019</v>
+        <v>1604.594846423319</v>
       </c>
       <c r="C106" t="n">
-        <v>1650655313.740019</v>
+        <v>1604594846.423319</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1652.311219814652</v>
+        <v>1605.568032970916</v>
       </c>
       <c r="C107" t="n">
-        <v>1652311219.814652</v>
+        <v>1605568032.970917</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1653.953098540443</v>
+        <v>1606.532588235871</v>
       </c>
       <c r="C108" t="n">
-        <v>1653953098.540443</v>
+        <v>1606532588.235871</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1655.581199153555</v>
+        <v>1607.488669023146</v>
       </c>
       <c r="C109" t="n">
-        <v>1655581199.153555</v>
+        <v>1607488669.023146</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1657.195764187673</v>
+        <v>1608.436427858132</v>
       </c>
       <c r="C110" t="n">
-        <v>1657195764.187673</v>
+        <v>1608436427.858132</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1658.79702971428</v>
+        <v>1609.376013141782</v>
       </c>
       <c r="C111" t="n">
-        <v>1658797029.71428</v>
+        <v>1609376013.141782</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1660.3852255722</v>
+        <v>1610.307569298753</v>
       </c>
       <c r="C112" t="n">
-        <v>1660385225.5722</v>
+        <v>1610307569.298753</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1661.960575586994</v>
+        <v>1611.231236918945</v>
       </c>
       <c r="C113" t="n">
-        <v>1661960575.586994</v>
+        <v>1611231236.918945</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1663.523297780731</v>
+        <v>1612.147152892768</v>
       </c>
       <c r="C114" t="n">
-        <v>1663523297.780731</v>
+        <v>1612147152.892768</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1665.073604572652</v>
+        <v>1613.055450540482</v>
       </c>
       <c r="C115" t="n">
-        <v>1665073604.572652</v>
+        <v>1613055450.540482</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1666.61170297118</v>
+        <v>1613.956259735921</v>
       </c>
       <c r="C116" t="n">
-        <v>1666611702.971179</v>
+        <v>1613956259.735921</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1668.13779475774</v>
+        <v>1614.849707024882</v>
       </c>
       <c r="C117" t="n">
-        <v>1668137794.75774</v>
+        <v>1614849707.024882</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1669.6520766628</v>
+        <v>1615.735915738458</v>
       </c>
       <c r="C118" t="n">
-        <v>1669652076.662801</v>
+        <v>1615735915.738458</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1671.154740534522</v>
+        <v>1616.615006101576</v>
       </c>
       <c r="C119" t="n">
-        <v>1671154740.534522</v>
+        <v>1616615006.101577</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1672.645973500388</v>
+        <v>1617.487095336976</v>
       </c>
       <c r="C120" t="n">
-        <v>1672645973.500388</v>
+        <v>1617487095.336976</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1674.125958122179</v>
+        <v>1618.352297764861</v>
       </c>
       <c r="C121" t="n">
-        <v>1674125958.122179</v>
+        <v>1618352297.764861</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1675.594872544588</v>
+        <v>1619.210724898439</v>
       </c>
       <c r="C122" t="n">
-        <v>1675594872.544588</v>
+        <v>1619210724.898439</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1677.052890637825</v>
+        <v>1620.062485535546</v>
       </c>
       <c r="C123" t="n">
-        <v>1677052890.637825</v>
+        <v>1620062485.535546</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1678.500182134473</v>
+        <v>1620.907685846558</v>
       </c>
       <c r="C124" t="n">
-        <v>1678500182.134473</v>
+        <v>1620907685.846558</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1679.936912760883</v>
+        <v>1621.746429458754</v>
       </c>
       <c r="C125" t="n">
-        <v>1679936912.760883</v>
+        <v>1621746429.458754</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1681.363244363369</v>
+        <v>1622.578817537319</v>
       </c>
       <c r="C126" t="n">
-        <v>1681363244.363369</v>
+        <v>1622578817.537319</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1682.779335029449</v>
+        <v>1623.404948863128</v>
       </c>
       <c r="C127" t="n">
-        <v>1682779335.029449</v>
+        <v>1623404948.863128</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1684.185339204359</v>
+        <v>1624.22491990748</v>
       </c>
       <c r="C128" t="n">
-        <v>1684185339.204359</v>
+        <v>1624224919.90748</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1685.581407803068</v>
+        <v>1625.038824903914</v>
       </c>
       <c r="C129" t="n">
-        <v>1685581407.803068</v>
+        <v>1625038824.903914</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1686.967688317992</v>
+        <v>1625.84675591725</v>
       </c>
       <c r="C130" t="n">
-        <v>1686967688.317992</v>
+        <v>1625846755.91725</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1688.344324922617</v>
+        <v>1626.648802909974</v>
       </c>
       <c r="C131" t="n">
-        <v>1688344324.922617</v>
+        <v>1626648802.909974</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1689.711458571205</v>
+        <v>1627.445053806098</v>
       </c>
       <c r="C132" t="n">
-        <v>1689711458.571204</v>
+        <v>1627445053.806098</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1691.06922709476</v>
+        <v>1628.235594552609</v>
       </c>
       <c r="C133" t="n">
-        <v>1691069227.09476</v>
+        <v>1628235594.552608</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1692.417765293441</v>
+        <v>1629.020509178604</v>
       </c>
       <c r="C134" t="n">
-        <v>1692417765.293441</v>
+        <v>1629020509.178604</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1693.757205025546</v>
+        <v>1629.799879852235</v>
       </c>
       <c r="C135" t="n">
-        <v>1693757205.025546</v>
+        <v>1629799879.852235</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1695.08767529325</v>
+        <v>1630.573786935537</v>
       </c>
       <c r="C136" t="n">
-        <v>1695087675.29325</v>
+        <v>1630573786.935537</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1696.40930232522</v>
+        <v>1631.342309037259</v>
       </c>
       <c r="C137" t="n">
-        <v>1696409302.32522</v>
+        <v>1631342309.037259</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1697.722209656255</v>
+        <v>1632.105523063758</v>
       </c>
       <c r="C138" t="n">
-        <v>1697722209.656255</v>
+        <v>1632105523.063758</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1699.026518204065</v>
+        <v>1632.863504268063</v>
       </c>
       <c r="C139" t="n">
-        <v>1699026518.204065</v>
+        <v>1632863504.268063</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1700.322346343323</v>
+        <v>1633.616326297175</v>
       </c>
       <c r="C140" t="n">
-        <v>1700322346.343323</v>
+        <v>1633616326.297174</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1701.60980997711</v>
+        <v>1634.364061237684</v>
       </c>
       <c r="C141" t="n">
-        <v>1701609809.97711</v>
+        <v>1634364061.237684</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1702.889022605841</v>
+        <v>1635.106779659772</v>
       </c>
       <c r="C142" t="n">
-        <v>1702889022.605841</v>
+        <v>1635106779.659772</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1704.160095393807</v>
+        <v>1635.844550659668</v>
       </c>
       <c r="C143" t="n">
-        <v>1704160095.393807</v>
+        <v>1635844550.659668</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1705.423137233406</v>
+        <v>1636.577441900629</v>
       </c>
       <c r="C144" t="n">
-        <v>1705423137.233406</v>
+        <v>1636577441.900629</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1706.678254807178</v>
+        <v>1637.305519652498</v>
       </c>
       <c r="C145" t="n">
-        <v>1706678254.807178</v>
+        <v>1637305519.652498</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1707.925552647724</v>
+        <v>1638.028848829902</v>
       </c>
       <c r="C146" t="n">
-        <v>1707925552.647724</v>
+        <v>1638028848.829901</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1709.165133195592</v>
+        <v>1638.747493029147</v>
       </c>
       <c r="C147" t="n">
-        <v>1709165133.195592</v>
+        <v>1638747493.029147</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1710.397096855227</v>
+        <v>1639.461514563863</v>
       </c>
       <c r="C148" t="n">
-        <v>1710397096.855227</v>
+        <v>1639461514.563863</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1711.621542049045</v>
+        <v>1640.17097449945</v>
       </c>
       <c r="C149" t="n">
-        <v>1711621542.049045</v>
+        <v>1640170974.49945</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1712.838565269719</v>
+        <v>1640.875932686363</v>
       </c>
       <c r="C150" t="n">
-        <v>1712838565.269719</v>
+        <v>1640875932.686363</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1714.048261130744</v>
+        <v>1641.576447792302</v>
       </c>
       <c r="C151" t="n">
-        <v>1714048261.130744</v>
+        <v>1641576447.792302</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1715.250722415343</v>
+        <v>1642.272577333339</v>
       </c>
       <c r="C152" t="n">
-        <v>1715250722.415343</v>
+        <v>1642272577.333339</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1716.446040123788</v>
+        <v>1642.964377704013</v>
       </c>
       <c r="C153" t="n">
-        <v>1716446040.123788</v>
+        <v>1642964377.704013</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1717.634303519195</v>
+        <v>1643.65190420646</v>
       </c>
       <c r="C154" t="n">
-        <v>1717634303.519195</v>
+        <v>1643651904.20646</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1718.815600171845</v>
+        <v>1644.33521107859</v>
       </c>
       <c r="C155" t="n">
-        <v>1718815600.171845</v>
+        <v>1644335211.07859</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1719.990016002098</v>
+        <v>1645.014351521366</v>
       </c>
       <c r="C156" t="n">
-        <v>1719990016.002098</v>
+        <v>1645014351.521366</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1721.157635321947</v>
+        <v>1645.689377725203</v>
       </c>
       <c r="C157" t="n">
-        <v>1721157635.321947</v>
+        <v>1645689377.725203</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1722.318540875265</v>
+        <v>1646.360340895538</v>
       </c>
       <c r="C158" t="n">
-        <v>1722318540.875265</v>
+        <v>1646360340.895539</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1723.472813876794</v>
+        <v>1647.027291277592</v>
       </c>
       <c r="C159" t="n">
-        <v>1723472813.876794</v>
+        <v>1647027291.277592</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1724.620534049925</v>
+        <v>1647.690278180351</v>
       </c>
       <c r="C160" t="n">
-        <v>1724620534.049925</v>
+        <v>1647690278.180351</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1725.761779663309</v>
+        <v>1648.349349999805</v>
       </c>
       <c r="C161" t="n">
-        <v>1725761779.663309</v>
+        <v>1648349349.999805</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1726.896627566351</v>
+        <v>1649.004554241471</v>
       </c>
       <c r="C162" t="n">
-        <v>1726896627.566351</v>
+        <v>1649004554.241471</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1728.025153223619</v>
+        <v>1649.655937542219</v>
       </c>
       <c r="C163" t="n">
-        <v>1728025153.223619</v>
+        <v>1649655937.542219</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1729.147430748206</v>
+        <v>1650.303545691428</v>
       </c>
       <c r="C164" t="n">
-        <v>1729147430.748206</v>
+        <v>1650303545.691428</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1730.263532934102</v>
+        <v>1650.94742365151</v>
       </c>
       <c r="C165" t="n">
-        <v>1730263532.934102</v>
+        <v>1650947423.65151</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1731.373531287583</v>
+        <v>1651.587615577808</v>
       </c>
       <c r="C166" t="n">
-        <v>1731373531.287583</v>
+        <v>1651587615.577808</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1732.477496057673</v>
+        <v>1652.224164837895</v>
       </c>
       <c r="C167" t="n">
-        <v>1732477496.057673</v>
+        <v>1652224164.837895</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1733.575496265709</v>
+        <v>1652.857114030303</v>
       </c>
       <c r="C168" t="n">
-        <v>1733575496.265709</v>
+        <v>1652857114.030303</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1734.667599734032</v>
+        <v>1653.486505002695</v>
       </c>
       <c r="C169" t="n">
-        <v>1734667599.734032</v>
+        <v>1653486505.002695</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1735.753873113845</v>
+        <v>1654.1123788695</v>
       </c>
       <c r="C170" t="n">
-        <v>1735753873.113845</v>
+        <v>1654112378.8695</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1736.834381912256</v>
+        <v>1654.734776029037</v>
       </c>
       <c r="C171" t="n">
-        <v>1736834381.912256</v>
+        <v>1654734776.029037</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1737.909190518548</v>
+        <v>1655.35373618013</v>
       </c>
       <c r="C172" t="n">
-        <v>1737909190.518548</v>
+        <v>1655353736.18013</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1738.978362229692</v>
+        <v>1655.969298338257</v>
       </c>
       <c r="C173" t="n">
-        <v>1738978362.229692</v>
+        <v>1655969298.338257</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1740.041959275133</v>
+        <v>1656.58150085122</v>
       </c>
       <c r="C174" t="n">
-        <v>1740041959.275133</v>
+        <v>1656581500.851219</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1741.100042840872</v>
+        <v>1657.190381414376</v>
       </c>
       <c r="C175" t="n">
-        <v>1741100042.840872</v>
+        <v>1657190381.414376</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1742.15267309287</v>
+        <v>1657.795977085434</v>
       </c>
       <c r="C176" t="n">
-        <v>1742152673.09287</v>
+        <v>1657795977.085434</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1743.199909199797</v>
+        <v>1658.398324298826</v>
       </c>
       <c r="C177" t="n">
-        <v>1743199909.199797</v>
+        <v>1658398324.298826</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1744.241809355146</v>
+        <v>1658.997458879686</v>
       </c>
       <c r="C178" t="n">
-        <v>1744241809.355146</v>
+        <v>1658997458.879686</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1745.278430798737</v>
+        <v>1659.593416057427</v>
       </c>
       <c r="C179" t="n">
-        <v>1745278430.798737</v>
+        <v>1659593416.057427</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1746.309829837619</v>
+        <v>1660.186230478951</v>
       </c>
       <c r="C180" t="n">
-        <v>1746309829.837619</v>
+        <v>1660186230.478951</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1747.336061866417</v>
+        <v>1660.775936221481</v>
       </c>
       <c r="C181" t="n">
-        <v>1747336061.866417</v>
+        <v>1660775936.221481</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1748.357181387102</v>
+        <v>1661.362566805055</v>
       </c>
       <c r="C182" t="n">
-        <v>1748357181.387102</v>
+        <v>1661362566.805055</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1749.373242028248</v>
+        <v>1661.946155204667</v>
       </c>
       <c r="C183" t="n">
-        <v>1749373242.028248</v>
+        <v>1661946155.204667</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1750.384296563752</v>
+        <v>1662.526733862082</v>
       </c>
       <c r="C184" t="n">
-        <v>1750384296.563752</v>
+        <v>1662526733.862082</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1751.390396931062</v>
+        <v>1663.104334697336</v>
       </c>
       <c r="C185" t="n">
-        <v>1751390396.931062</v>
+        <v>1663104334.697336</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1752.391594248917</v>
+        <v>1663.678989119915</v>
       </c>
       <c r="C186" t="n">
-        <v>1752391594.248918</v>
+        <v>1663678989.119915</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1753.387938834618</v>
+        <v>1664.250728039651</v>
       </c>
       <c r="C187" t="n">
-        <v>1753387938.834618</v>
+        <v>1664250728.039651</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1754.379480220839</v>
+        <v>1664.819581877314</v>
       </c>
       <c r="C188" t="n">
-        <v>1754379480.220839</v>
+        <v>1664819581.877314</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1755.366267172002</v>
+        <v>1665.385580574931</v>
       </c>
       <c r="C189" t="n">
-        <v>1755366267.172002</v>
+        <v>1665385580.574931</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1756.348347700222</v>
+        <v>1665.948753605833</v>
       </c>
       <c r="C190" t="n">
-        <v>1756348347.700222</v>
+        <v>1665948753.605833</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1757.325769080842</v>
+        <v>1666.509129984436</v>
       </c>
       <c r="C191" t="n">
-        <v>1757325769.080842</v>
+        <v>1666509129.984436</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1758.298577867561</v>
+        <v>1667.066738275772</v>
       </c>
       <c r="C192" t="n">
-        <v>1758298577.867561</v>
+        <v>1667066738.275772</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1759.266819907181</v>
+        <v>1667.621606604768</v>
       </c>
       <c r="C193" t="n">
-        <v>1759266819.907181</v>
+        <v>1667621606.604768</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1760.230540353968</v>
+        <v>1668.17376266529</v>
       </c>
       <c r="C194" t="n">
-        <v>1760230540.353968</v>
+        <v>1668173762.66529</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1761.18978368366</v>
+        <v>1668.723233728952</v>
       </c>
       <c r="C195" t="n">
-        <v>1761189783.68366</v>
+        <v>1668723233.728952</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1762.144593707107</v>
+        <v>1669.270046653705</v>
       </c>
       <c r="C196" t="n">
-        <v>1762144593.707107</v>
+        <v>1669270046.653705</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1763.095013583582</v>
+        <v>1669.814227892201</v>
       </c>
       <c r="C197" t="n">
-        <v>1763095013.583582</v>
+        <v>1669814227.8922</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1764.041085833749</v>
+        <v>1670.355803499952</v>
       </c>
       <c r="C198" t="n">
-        <v>1764041085.833749</v>
+        <v>1670355803.499952</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1764.982852352312</v>
+        <v>1670.894799143284</v>
       </c>
       <c r="C199" t="n">
-        <v>1764982852.352312</v>
+        <v>1670894799.143284</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1765.92035442035</v>
+        <v>1671.431240107088</v>
       </c>
       <c r="C200" t="n">
-        <v>1765920354.42035</v>
+        <v>1671431240.107088</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1766.853632717351</v>
+        <v>1671.965151302379</v>
       </c>
       <c r="C201" t="n">
-        <v>1766853632.717351</v>
+        <v>1671965151.302379</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1767.782727332943</v>
+        <v>1672.496557273674</v>
       </c>
       <c r="C202" t="n">
-        <v>1767782727.332943</v>
+        <v>1672496557.273674</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1768.70767777835</v>
+        <v>1673.025482206183</v>
       </c>
       <c r="C203" t="n">
-        <v>1768707677.77835</v>
+        <v>1673025482.206183</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1769.628522997559</v>
+        <v>1673.551949932822</v>
       </c>
       <c r="C204" t="n">
-        <v>1769628522.997559</v>
+        <v>1673551949.932822</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1770.545301378227</v>
+        <v>1674.075983941063</v>
       </c>
       <c r="C205" t="n">
-        <v>1770545301.378227</v>
+        <v>1674075983.941063</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1771.458050762317</v>
+        <v>1674.597607379608</v>
       </c>
       <c r="C206" t="n">
-        <v>1771458050.762317</v>
+        <v>1674597607.379608</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1772.366808456486</v>
+        <v>1675.116843064913</v>
       </c>
       <c r="C207" t="n">
-        <v>1772366808.456486</v>
+        <v>1675116843.064913</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1773.271611242224</v>
+        <v>1675.633713487544</v>
       </c>
       <c r="C208" t="n">
-        <v>1773271611.242224</v>
+        <v>1675633713.487544</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1774.172495385749</v>
+        <v>1676.148240818389</v>
       </c>
       <c r="C209" t="n">
-        <v>1774172495.385749</v>
+        <v>1676148240.818389</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1775.069496647677</v>
+        <v>1676.660446914722</v>
       </c>
       <c r="C210" t="n">
-        <v>1775069496.647677</v>
+        <v>1676660446.914722</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1775.962650292457</v>
+        <v>1677.170353326115</v>
       </c>
       <c r="C211" t="n">
-        <v>1775962650.292457</v>
+        <v>1677170353.326115</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1776.851991097587</v>
+        <v>1677.677981300226</v>
       </c>
       <c r="C212" t="n">
-        <v>1776851991.097587</v>
+        <v>1677677981.300226</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1777.737553362625</v>
+        <v>1678.183351788435</v>
       </c>
       <c r="C213" t="n">
-        <v>1777737553.362625</v>
+        <v>1678183351.788435</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1778.619370917975</v>
+        <v>1678.686485451358</v>
       </c>
       <c r="C214" t="n">
-        <v>1778619370.917975</v>
+        <v>1678686485.451358</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1779.497477133488</v>
+        <v>1679.187402664234</v>
       </c>
       <c r="C215" t="n">
-        <v>1779497477.133488</v>
+        <v>1679187402.664234</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1780.371904926854</v>
+        <v>1679.686123522181</v>
       </c>
       <c r="C216" t="n">
-        <v>1780371904.926854</v>
+        <v>1679686123.522181</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1781.242686771807</v>
+        <v>1680.182667845335</v>
       </c>
       <c r="C217" t="n">
-        <v>1781242686.771806</v>
+        <v>1680182667.845335</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1782.109854706144</v>
+        <v>1680.677055183871</v>
       </c>
       <c r="C218" t="n">
-        <v>1782109854.706144</v>
+        <v>1680677055.183871</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1782.973440339564</v>
+        <v>1681.169304822912</v>
       </c>
       <c r="C219" t="n">
-        <v>1782973440.339564</v>
+        <v>1681169304.822912</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1783.833474861326</v>
+        <v>1681.65943578732</v>
       </c>
       <c r="C220" t="n">
-        <v>1783833474.861326</v>
+        <v>1681659435.78732</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1784.68998904774</v>
+        <v>1682.147466846384</v>
       </c>
       <c r="C221" t="n">
-        <v>1784689989.04774</v>
+        <v>1682147466.846384</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1785.543013269488</v>
+        <v>1682.633416518405</v>
       </c>
       <c r="C222" t="n">
-        <v>1785543013.269489</v>
+        <v>1682633416.518405</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1786.39257749879</v>
+        <v>1683.117303075169</v>
       </c>
       <c r="C223" t="n">
-        <v>1786392577.49879</v>
+        <v>1683117303.075169</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1787.238711316396</v>
+        <v>1683.599144546332</v>
       </c>
       <c r="C224" t="n">
-        <v>1787238711.316396</v>
+        <v>1683599144.546332</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1788.081443918445</v>
+        <v>1684.078958723696</v>
       </c>
       <c r="C225" t="n">
-        <v>1788081443.918445</v>
+        <v>1684078958.723696</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1788.920804123154</v>
+        <v>1684.556763165403</v>
       </c>
       <c r="C226" t="n">
-        <v>1788920804.123154</v>
+        <v>1684556763.165403</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1789.756820377376</v>
+        <v>1685.032575200026</v>
       </c>
       <c r="C227" t="n">
-        <v>1789756820.377376</v>
+        <v>1685032575.200026</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1790.589520763008</v>
+        <v>1685.506411930573</v>
       </c>
       <c r="C228" t="n">
-        <v>1790589520.763008</v>
+        <v>1685506411.930573</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1791.418933003263</v>
+        <v>1685.978290238415</v>
       </c>
       <c r="C229" t="n">
-        <v>1791418933.003263</v>
+        <v>1685978290.238415</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1792.245084468809</v>
+        <v>1686.448226787107</v>
       </c>
       <c r="C230" t="n">
-        <v>1792245084.468809</v>
+        <v>1686448226.787107</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1793.068002183768</v>
+        <v>1686.916238026148</v>
       </c>
       <c r="C231" t="n">
-        <v>1793068002.183768</v>
+        <v>1686916238.026148</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1793.887712831602</v>
+        <v>1687.382340194647</v>
       </c>
       <c r="C232" t="n">
-        <v>1793887712.831602</v>
+        <v>1687382340.194647</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1794.704242760859</v>
+        <v>1687.846549324917</v>
       </c>
       <c r="C233" t="n">
-        <v>1794704242.760859</v>
+        <v>1687846549.324917</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1795.517617990808</v>
+        <v>1688.308881245987</v>
       </c>
       <c r="C234" t="n">
-        <v>1795517617.990808</v>
+        <v>1688308881.245987</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1796.327864216949</v>
+        <v>1688.769351587045</v>
       </c>
       <c r="C235" t="n">
-        <v>1796327864.216949</v>
+        <v>1688769351.587045</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1797.135006816414</v>
+        <v>1689.227975780805</v>
       </c>
       <c r="C236" t="n">
-        <v>1797135006.816414</v>
+        <v>1689227975.780805</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1797.939070853246</v>
+        <v>1689.684769066802</v>
       </c>
       <c r="C237" t="n">
-        <v>1797939070.853246</v>
+        <v>1689684769.066802</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1798.740081083581</v>
+        <v>1690.139746494623</v>
       </c>
       <c r="C238" t="n">
-        <v>1798740081.083581</v>
+        <v>1690139746.494623</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1799.538061960708</v>
+        <v>1690.592922927067</v>
       </c>
       <c r="C239" t="n">
-        <v>1799538061.960708</v>
+        <v>1690592922.927067</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1800.333037640038</v>
+        <v>1691.044313043234</v>
       </c>
       <c r="C240" t="n">
-        <v>1800333037.640038</v>
+        <v>1691044313.043234</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1801.125031983964</v>
+        <v>1691.493931341566</v>
       </c>
       <c r="C241" t="n">
-        <v>1801125031.983964</v>
+        <v>1691493931.341566</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1801.914068566623</v>
+        <v>1691.941792142805</v>
       </c>
       <c r="C242" t="n">
-        <v>1801914068.566623</v>
+        <v>1691941792.142805</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1802.700170678562</v>
+        <v>1692.387909592907</v>
       </c>
       <c r="C243" t="n">
-        <v>1802700170.678562</v>
+        <v>1692387909.592907</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1803.483361331307</v>
+        <v>1692.832297665888</v>
       </c>
       <c r="C244" t="n">
-        <v>1803483361.331307</v>
+        <v>1692832297.665888</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1804.263663261844</v>
+        <v>1693.274970166613</v>
       </c>
       <c r="C245" t="n">
-        <v>1804263663.261844</v>
+        <v>1693274970.166613</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1805.041098937009</v>
+        <v>1693.715940733531</v>
       </c>
       <c r="C246" t="n">
-        <v>1805041098.937009</v>
+        <v>1693715940.733531</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1805.815690557785</v>
+        <v>1694.155222841352</v>
       </c>
       <c r="C247" t="n">
-        <v>1805815690.557785</v>
+        <v>1694155222.841352</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1806.587460063518</v>
+        <v>1694.592829803674</v>
       </c>
       <c r="C248" t="n">
-        <v>1806587460.063518</v>
+        <v>1694592829.803674</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1807.356429136053</v>
+        <v>1695.028774775551</v>
       </c>
       <c r="C249" t="n">
-        <v>1807356429.136053</v>
+        <v>1695028774.775552</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1808.122619203779</v>
+        <v>1695.463070756017</v>
       </c>
       <c r="C250" t="n">
-        <v>1808122619.203779</v>
+        <v>1695463070.756017</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1808.8860514456</v>
+        <v>1695.895730590555</v>
       </c>
       <c r="C251" t="n">
-        <v>1808886051.4456</v>
+        <v>1695895730.590555</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1809.646746794831</v>
+        <v>1696.326766973519</v>
       </c>
       <c r="C252" t="n">
-        <v>1809646746.794831</v>
+        <v>1696326766.973519</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1811.536646466158</v>
+        <v>1697.397337300999</v>
       </c>
       <c r="C253" t="n">
-        <v>1811536646.466158</v>
+        <v>1697397337.300999</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1813.409886101349</v>
+        <v>1698.458031133348</v>
       </c>
       <c r="C254" t="n">
-        <v>1813409886.101349</v>
+        <v>1698458031.133348</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1815.266773624416</v>
+        <v>1699.509035036496</v>
       </c>
       <c r="C255" t="n">
-        <v>1815266773.624416</v>
+        <v>1699509035.036495</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1817.107608348679</v>
+        <v>1700.550530283912</v>
       </c>
       <c r="C256" t="n">
-        <v>1817107608.348679</v>
+        <v>1700550530.283912</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1818.932681297632</v>
+        <v>1701.582693055946</v>
       </c>
       <c r="C257" t="n">
-        <v>1818932681.297632</v>
+        <v>1701582693.055946</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1820.742275510919</v>
+        <v>1702.605694629835</v>
       </c>
       <c r="C258" t="n">
-        <v>1820742275.510919</v>
+        <v>1702605694.629835</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1822.536666336253</v>
+        <v>1703.619701560912</v>
       </c>
       <c r="C259" t="n">
-        <v>1822536666.336253</v>
+        <v>1703619701.560912</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1824.316121708047</v>
+        <v>1704.624875855488</v>
       </c>
       <c r="C260" t="n">
-        <v>1824316121.708047</v>
+        <v>1704624875.855488</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1826.080902413478</v>
+        <v>1705.621375135877</v>
       </c>
       <c r="C261" t="n">
-        <v>1826080902.413478</v>
+        <v>1705621375.135877</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1827.831262346654</v>
+        <v>1706.609352797974</v>
       </c>
       <c r="C262" t="n">
-        <v>1827831262.346654</v>
+        <v>1706609352.797974</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1829.567448751531</v>
+        <v>1707.5889581618</v>
       </c>
       <c r="C263" t="n">
-        <v>1829567448.751531</v>
+        <v>1707588958.1618</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1831.289702454167</v>
+        <v>1708.560336615378</v>
       </c>
       <c r="C264" t="n">
-        <v>1831289702.454167</v>
+        <v>1708560336.615378</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1832.998258084868</v>
+        <v>1709.523629752306</v>
       </c>
       <c r="C265" t="n">
-        <v>1832998258.084868</v>
+        <v>1709523629.752306</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1834.693344290761</v>
+        <v>1710.478975503333</v>
       </c>
       <c r="C266" t="n">
-        <v>1834693344.290761</v>
+        <v>1710478975.503333</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1836.375183939278</v>
+        <v>1711.426508262274</v>
       </c>
       <c r="C267" t="n">
-        <v>1836375183.939279</v>
+        <v>1711426508.262274</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1838.043994313021</v>
+        <v>1712.366359006543</v>
       </c>
       <c r="C268" t="n">
-        <v>1838043994.313021</v>
+        <v>1712366359.006543</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1839.699987296438</v>
+        <v>1713.298655412572</v>
       </c>
       <c r="C269" t="n">
-        <v>1839699987.296438</v>
+        <v>1713298655.412572</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1841.343369554723</v>
+        <v>1714.223521966391</v>
       </c>
       <c r="C270" t="n">
-        <v>1841343369.554723</v>
+        <v>1714223521.966392</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1842.974342705337</v>
+        <v>1715.141080069596</v>
       </c>
       <c r="C271" t="n">
-        <v>1842974342.705337</v>
+        <v>1715141080.069596</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1844.593103482488</v>
+        <v>1716.051448140939</v>
       </c>
       <c r="C272" t="n">
-        <v>1844593103.482488</v>
+        <v>1716051448.140939</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1846.199843894949</v>
+        <v>1716.954741713765</v>
       </c>
       <c r="C273" t="n">
-        <v>1846199843.894949</v>
+        <v>1716954741.713765</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1847.794751377505</v>
+        <v>1717.851073529478</v>
       </c>
       <c r="C274" t="n">
-        <v>1847794751.377506</v>
+        <v>1717851073.529478</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1849.378008936359</v>
+        <v>1718.740553627254</v>
       </c>
       <c r="C275" t="n">
-        <v>1849378008.936359</v>
+        <v>1718740553.627254</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1850.949795288768</v>
+        <v>1719.62328943016</v>
       </c>
       <c r="C276" t="n">
-        <v>1850949795.288769</v>
+        <v>1719623289.43016</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1852.510284997198</v>
+        <v>1720.499385827859</v>
       </c>
       <c r="C277" t="n">
-        <v>1852510284.997198</v>
+        <v>1720499385.827859</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1854.059648598241</v>
+        <v>1721.368945256069</v>
       </c>
       <c r="C278" t="n">
-        <v>1854059648.598241</v>
+        <v>1721368945.256069</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1855.59805272655</v>
+        <v>1722.232067772911</v>
       </c>
       <c r="C279" t="n">
-        <v>1855598052.72655</v>
+        <v>1722232067.772911</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1857.12566023401</v>
+        <v>1723.088851132313</v>
       </c>
       <c r="C280" t="n">
-        <v>1857125660.23401</v>
+        <v>1723088851.132313</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1858.642630304382</v>
+        <v>1723.939390854586</v>
       </c>
       <c r="C281" t="n">
-        <v>1858642630.304382</v>
+        <v>1723939390.854586</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1860.149118563595</v>
+        <v>1724.783780294313</v>
       </c>
       <c r="C282" t="n">
-        <v>1860149118.563595</v>
+        <v>1724783780.294313</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1861.645277185926</v>
+        <v>1725.622110705669</v>
       </c>
       <c r="C283" t="n">
-        <v>1861645277.185925</v>
+        <v>1725622110.705668</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1863.131254996207</v>
+        <v>1726.454471305289</v>
       </c>
       <c r="C284" t="n">
-        <v>1863131254.996207</v>
+        <v>1726454471.30529</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1864.607197568272</v>
+        <v>1727.280949332802</v>
       </c>
       <c r="C285" t="n">
-        <v>1864607197.568272</v>
+        <v>1727280949.332802</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1866.073247319784</v>
+        <v>1728.101630109111</v>
       </c>
       <c r="C286" t="n">
-        <v>1866073247.319784</v>
+        <v>1728101630.109111</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1867.52954360362</v>
+        <v>1728.916597092547</v>
       </c>
       <c r="C287" t="n">
-        <v>1867529543.60362</v>
+        <v>1728916597.092547</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1868.976222795949</v>
+        <v>1729.725931932975</v>
       </c>
       <c r="C288" t="n">
-        <v>1868976222.795949</v>
+        <v>1729725931.932975</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1870.413418381157</v>
+        <v>1730.52971452394</v>
       </c>
       <c r="C289" t="n">
-        <v>1870413418.381157</v>
+        <v>1730529714.52394</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1871.841261033747</v>
+        <v>1731.328023052945</v>
       </c>
       <c r="C290" t="n">
-        <v>1871841261.033747</v>
+        <v>1731328023.052945</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1873.259878697341</v>
+        <v>1732.120934049932</v>
       </c>
       <c r="C291" t="n">
-        <v>1873259878.697341</v>
+        <v>1732120934.049932</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1874.669396660922</v>
+        <v>1732.908522434056</v>
       </c>
       <c r="C292" t="n">
-        <v>1874669396.660922</v>
+        <v>1732908522.434056</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1876.069937632405</v>
+        <v>1733.690861558805</v>
       </c>
       <c r="C293" t="n">
-        <v>1876069937.632405</v>
+        <v>1733690861.558805</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1877.461621809674</v>
+        <v>1734.468023255556</v>
       </c>
       <c r="C294" t="n">
-        <v>1877461621.809674</v>
+        <v>1734468023.255556</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1878.84456694918</v>
+        <v>1735.240077875615</v>
       </c>
       <c r="C295" t="n">
-        <v>1878844566.94918</v>
+        <v>1735240077.875615</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1880.218888432189</v>
+        <v>1736.007094330818</v>
       </c>
       <c r="C296" t="n">
-        <v>1880218888.432189</v>
+        <v>1736007094.330818</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1881.584699328797</v>
+        <v>1736.769140132737</v>
       </c>
       <c r="C297" t="n">
-        <v>1881584699.328797</v>
+        <v>1736769140.132737</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1882.942110459789</v>
+        <v>1737.526281430562</v>
       </c>
       <c r="C298" t="n">
-        <v>1882942110.459789</v>
+        <v>1737526281.430562</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1884.291230456426</v>
+        <v>1738.278583047703</v>
       </c>
       <c r="C299" t="n">
-        <v>1884291230.456426</v>
+        <v>1738278583.047703</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1885.632165818258</v>
+        <v>1739.026108517173</v>
       </c>
       <c r="C300" t="n">
-        <v>1885632165.818258</v>
+        <v>1739026108.517174</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1886.96502096902</v>
+        <v>1739.768920115787</v>
       </c>
       <c r="C301" t="n">
-        <v>1886965020.96902</v>
+        <v>1739768920.115787</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1888.289898310709</v>
+        <v>1740.507078897234</v>
       </c>
       <c r="C302" t="n">
-        <v>1888289898.310709</v>
+        <v>1740507078.897234</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1889.606898275896</v>
+        <v>1741.240644724072</v>
       </c>
       <c r="C303" t="n">
-        <v>1889606898.275896</v>
+        <v>1741240644.724072</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1890.91611937835</v>
+        <v>1741.96967629867</v>
       </c>
       <c r="C304" t="n">
-        <v>1890916119.37835</v>
+        <v>1741969676.29867</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1892.217658262038</v>
+        <v>1742.694231193154</v>
       </c>
       <c r="C305" t="n">
-        <v>1892217658.262038</v>
+        <v>1742694231.193154</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1893.511609748562</v>
+        <v>1743.414365878388</v>
       </c>
       <c r="C306" t="n">
-        <v>1893511609.748562</v>
+        <v>1743414365.878388</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1894.798066883089</v>
+        <v>1744.130135752034</v>
       </c>
       <c r="C307" t="n">
-        <v>1894798066.883089</v>
+        <v>1744130135.752034</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1896.077120978847</v>
+        <v>1744.841595165712</v>
       </c>
       <c r="C308" t="n">
-        <v>1896077120.978847</v>
+        <v>1744841595.165712</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1897.348861660218</v>
+        <v>1745.548797451314</v>
       </c>
       <c r="C309" t="n">
-        <v>1897348861.660218</v>
+        <v>1745548797.451314</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1898.613376904494</v>
+        <v>1746.251794946485</v>
       </c>
       <c r="C310" t="n">
-        <v>1898613376.904494</v>
+        <v>1746251794.946485</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1899.87075308235</v>
+        <v>1746.950639019314</v>
       </c>
       <c r="C311" t="n">
-        <v>1899870753.08235</v>
+        <v>1746950639.019314</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1901.121074997069</v>
+        <v>1747.645380092262</v>
       </c>
       <c r="C312" t="n">
-        <v>1901121074.997069</v>
+        <v>1747645380.092262</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1902.364425922574</v>
+        <v>1748.336067665351</v>
       </c>
       <c r="C313" t="n">
-        <v>1902364425.922574</v>
+        <v>1748336067.665351</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1903.600887640302</v>
+        <v>1749.022750338646</v>
       </c>
       <c r="C314" t="n">
-        <v>1903600887.640302</v>
+        <v>1749022750.338646</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1904.830540474978</v>
+        <v>1749.705475834057</v>
       </c>
       <c r="C315" t="n">
-        <v>1904830540.474978</v>
+        <v>1749705475.834057</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1906.053463329306</v>
+        <v>1750.384291016475</v>
       </c>
       <c r="C316" t="n">
-        <v>1906053463.329306</v>
+        <v>1750384291.016475</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1907.269733717638</v>
+        <v>1751.059241914282</v>
       </c>
       <c r="C317" t="n">
-        <v>1907269733.717638</v>
+        <v>1751059241.914282</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1908.479427798641</v>
+        <v>1751.730373739246</v>
       </c>
       <c r="C318" t="n">
-        <v>1908479427.798641</v>
+        <v>1751730373.739246</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1909.682620407004</v>
+        <v>1752.397730905822</v>
       </c>
       <c r="C319" t="n">
-        <v>1909682620.407004</v>
+        <v>1752397730.905822</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1910.879385084226</v>
+        <v>1753.061357049895</v>
       </c>
       <c r="C320" t="n">
-        <v>1910879385.084226</v>
+        <v>1753061357.049895</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1912.069794108497</v>
+        <v>1753.721295046961</v>
       </c>
       <c r="C321" t="n">
-        <v>1912069794.108497</v>
+        <v>1753721295.046961</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1913.253918523728</v>
+        <v>1754.377587029789</v>
       </c>
       <c r="C322" t="n">
-        <v>1913253918.523728</v>
+        <v>1754377587.029789</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1914.431828167743</v>
+        <v>1755.030274405564</v>
       </c>
       <c r="C323" t="n">
-        <v>1914431828.167743</v>
+        <v>1755030274.405564</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1915.603591699662</v>
+        <v>1755.679397872544</v>
       </c>
       <c r="C324" t="n">
-        <v>1915603591.699661</v>
+        <v>1755679397.872544</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1916.769276626516</v>
+        <v>1756.324997436233</v>
       </c>
       <c r="C325" t="n">
-        <v>1916769276.626516</v>
+        <v>1756324997.436233</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1917.928949329108</v>
+        <v>1756.967112425099</v>
       </c>
       <c r="C326" t="n">
-        <v>1917928949.329108</v>
+        <v>1756967112.425099</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1919.08267508714</v>
+        <v>1757.605781505847</v>
       </c>
       <c r="C327" t="n">
-        <v>1919082675.08714</v>
+        <v>1757605781.505847</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1920.230518103655</v>
+        <v>1758.241042698256</v>
       </c>
       <c r="C328" t="n">
-        <v>1920230518.103655</v>
+        <v>1758241042.698256</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1921.372541528787</v>
+        <v>1758.872933389612</v>
       </c>
       <c r="C329" t="n">
-        <v>1921372541.528787</v>
+        <v>1758872933.389612</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1922.508807482867</v>
+        <v>1759.501490348733</v>
       </c>
       <c r="C330" t="n">
-        <v>1922508807.482867</v>
+        <v>1759501490.348733</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1923.639377078885</v>
+        <v>1760.126749739602</v>
       </c>
       <c r="C331" t="n">
-        <v>1923639377.078886</v>
+        <v>1760126749.739602</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1924.76431044435</v>
+        <v>1760.748747134637</v>
       </c>
       <c r="C332" t="n">
-        <v>1924764310.44435</v>
+        <v>1760748747.134637</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1925.883666742549</v>
+        <v>1761.367517527586</v>
       </c>
       <c r="C333" t="n">
-        <v>1925883666.742549</v>
+        <v>1761367517.527586</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1926.997504193239</v>
+        <v>1761.983095346079</v>
       </c>
       <c r="C334" t="n">
-        <v>1926997504.193239</v>
+        <v>1761983095.346079</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1928.105880092777</v>
+        <v>1762.595514463838</v>
       </c>
       <c r="C335" t="n">
-        <v>1928105880.092777</v>
+        <v>1762595514.463838</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1929.208850833722</v>
+        <v>1763.204808212557</v>
       </c>
       <c r="C336" t="n">
-        <v>1929208850.833722</v>
+        <v>1763204808.212557</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1930.306471923909</v>
+        <v>1763.811009393466</v>
       </c>
       <c r="C337" t="n">
-        <v>1930306471.923909</v>
+        <v>1763811009.393466</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1931.398798005025</v>
+        <v>1764.414150288592</v>
       </c>
       <c r="C338" t="n">
-        <v>1931398798.005025</v>
+        <v>1764414150.288592</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1932.485882870694</v>
+        <v>1765.014262671708</v>
       </c>
       <c r="C339" t="n">
-        <v>1932485882.870694</v>
+        <v>1765014262.671708</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1933.567779484092</v>
+        <v>1765.61137781901</v>
       </c>
       <c r="C340" t="n">
-        <v>1933567779.484092</v>
+        <v>1765611377.81901</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1934.644539995103</v>
+        <v>1766.205526519505</v>
       </c>
       <c r="C341" t="n">
-        <v>1934644539.995103</v>
+        <v>1766205526.519505</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1935.716215757037</v>
+        <v>1766.796739085129</v>
       </c>
       <c r="C342" t="n">
-        <v>1935716215.757037</v>
+        <v>1766796739.085129</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1936.78285734291</v>
+        <v>1767.385045360608</v>
       </c>
       <c r="C343" t="n">
-        <v>1936782857.34291</v>
+        <v>1767385045.360608</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1937.844514561313</v>
+        <v>1767.970474733057</v>
       </c>
       <c r="C344" t="n">
-        <v>1937844514.561313</v>
+        <v>1767970474.733057</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1938.90123647188</v>
+        <v>1768.553056141339</v>
       </c>
       <c r="C345" t="n">
-        <v>1938901236.47188</v>
+        <v>1768553056.141339</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1939.953071400359</v>
+        <v>1769.132818085185</v>
       </c>
       <c r="C346" t="n">
-        <v>1939953071.400359</v>
+        <v>1769132818.085185</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1941.000066953307</v>
+        <v>1769.709788634079</v>
       </c>
       <c r="C347" t="n">
-        <v>1941000066.953307</v>
+        <v>1769709788.634079</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1942.042270032417</v>
+        <v>1770.28399543592</v>
       </c>
       <c r="C348" t="n">
-        <v>1942042270.032417</v>
+        <v>1770283995.43592</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1943.079726848487</v>
+        <v>1770.855465725468</v>
       </c>
       <c r="C349" t="n">
-        <v>1943079726.848487</v>
+        <v>1770855465.725468</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1944.112482935045</v>
+        <v>1771.424226332579</v>
       </c>
       <c r="C350" t="n">
-        <v>1944112482.935045</v>
+        <v>1771424226.332579</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1945.140583161634</v>
+        <v>1771.990303690232</v>
       </c>
       <c r="C351" t="n">
-        <v>1945140583.161634</v>
+        <v>1771990303.690232</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>1946.164071746779</v>
+        <v>1772.553723842361</v>
       </c>
       <c r="C352" t="n">
-        <v>1946164071.746778</v>
+        <v>1772553723.842361</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>1947.182992270623</v>
+        <v>1773.114512451491</v>
       </c>
       <c r="C353" t="n">
-        <v>1947182992.270623</v>
+        <v>1773114512.451491</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>1948.197387687276</v>
+        <v>1773.672694806192</v>
       </c>
       <c r="C354" t="n">
-        <v>1948197387.687275</v>
+        <v>1773672694.806192</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>1949.207300336846</v>
+        <v>1774.228295828342</v>
       </c>
       <c r="C355" t="n">
-        <v>1949207300.336846</v>
+        <v>1774228295.828341</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>1950.212771957195</v>
+        <v>1774.781340080226</v>
       </c>
       <c r="C356" t="n">
-        <v>1950212771.957195</v>
+        <v>1774781340.080226</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>1951.213843695406</v>
+        <v>1775.331851771455</v>
       </c>
       <c r="C357" t="n">
-        <v>1951213843.695406</v>
+        <v>1775331851.771455</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>1952.210556118978</v>
+        <v>1775.879854765721</v>
       </c>
       <c r="C358" t="n">
-        <v>1952210556.118978</v>
+        <v>1775879854.765721</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>1953.202949226757</v>
+        <v>1776.425372587388</v>
       </c>
       <c r="C359" t="n">
-        <v>1953202949.226757</v>
+        <v>1776425372.587388</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>1954.191062459611</v>
+        <v>1776.968428427936</v>
       </c>
       <c r="C360" t="n">
-        <v>1954191062.459611</v>
+        <v>1776968428.427936</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>1955.17493471085</v>
+        <v>1777.509045152238</v>
       </c>
       <c r="C361" t="n">
-        <v>1955174934.71085</v>
+        <v>1777509045.152238</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>1956.154604336406</v>
+        <v>1778.047245304701</v>
       </c>
       <c r="C362" t="n">
-        <v>1956154604.336406</v>
+        <v>1778047245.304701</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>1957.130109164772</v>
+        <v>1778.583051115255</v>
       </c>
       <c r="C363" t="n">
-        <v>1957130109.164773</v>
+        <v>1778583051.115255</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>1958.10148650672</v>
+        <v>1779.116484505212</v>
       </c>
       <c r="C364" t="n">
-        <v>1958101486.50672</v>
+        <v>1779116484.505212</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>1959.068773164782</v>
+        <v>1779.647567092974</v>
       </c>
       <c r="C365" t="n">
-        <v>1959068773.164783</v>
+        <v>1779647567.092974</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>1960.032005442529</v>
+        <v>1780.176320199625</v>
       </c>
       <c r="C366" t="n">
-        <v>1960032005.442529</v>
+        <v>1780176320.199625</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>1960.99121915362</v>
+        <v>1780.702764854383</v>
       </c>
       <c r="C367" t="n">
-        <v>1960991219.15362</v>
+        <v>1780702764.854383</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>1961.946449630668</v>
+        <v>1781.226921799932</v>
       </c>
       <c r="C368" t="n">
-        <v>1961946449.630668</v>
+        <v>1781226921.799932</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>1962.897731733882</v>
+        <v>1781.748811497631</v>
       </c>
       <c r="C369" t="n">
-        <v>1962897731.733881</v>
+        <v>1781748811.497631</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>1963.845099859531</v>
+        <v>1782.268454132608</v>
       </c>
       <c r="C370" t="n">
-        <v>1963845099.859531</v>
+        <v>1782268454.132608</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>1964.788587948214</v>
+        <v>1782.785869618733</v>
       </c>
       <c r="C371" t="n">
-        <v>1964788587.948214</v>
+        <v>1782785869.618733</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>1965.728229492944</v>
+        <v>1783.301077603482</v>
       </c>
       <c r="C372" t="n">
-        <v>1965728229.492944</v>
+        <v>1783301077.603482</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>1966.664057547051</v>
+        <v>1783.814097472697</v>
       </c>
       <c r="C373" t="n">
-        <v>1966664057.547051</v>
+        <v>1783814097.472697</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>1967.596104731914</v>
+        <v>1784.324948355231</v>
       </c>
       <c r="C374" t="n">
-        <v>1967596104.731914</v>
+        <v>1784324948.355231</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>1968.524403244523</v>
+        <v>1784.833649127495</v>
       </c>
       <c r="C375" t="n">
-        <v>1968524403.244523</v>
+        <v>1784833649.127495</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>1969.448984864873</v>
+        <v>1785.340218417906</v>
       </c>
       <c r="C376" t="n">
-        <v>1969448984.864873</v>
+        <v>1785340218.417906</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>1970.369880963198</v>
+        <v>1785.844674611234</v>
       </c>
       <c r="C377" t="n">
-        <v>1970369880.963198</v>
+        <v>1785844674.611234</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>1971.287122507046</v>
+        <v>1786.347035852854</v>
       </c>
       <c r="C378" t="n">
-        <v>1971287122.507046</v>
+        <v>1786347035.852854</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>1972.200740068207</v>
+        <v>1786.847320052909</v>
       </c>
       <c r="C379" t="n">
-        <v>1972200740.068207</v>
+        <v>1786847320.052909</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>1973.110763829483</v>
+        <v>1787.345544890376</v>
       </c>
       <c r="C380" t="n">
-        <v>1973110763.829483</v>
+        <v>1787345544.890376</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>1974.017223591322</v>
+        <v>1787.841727817052</v>
       </c>
       <c r="C381" t="n">
-        <v>1974017223.591322</v>
+        <v>1787841727.817052</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>1974.920148778303</v>
+        <v>1788.335886061448</v>
       </c>
       <c r="C382" t="n">
-        <v>1974920148.778303</v>
+        <v>1788335886.061448</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>1975.81956844549</v>
+        <v>1788.828036632605</v>
       </c>
       <c r="C383" t="n">
-        <v>1975819568.44549</v>
+        <v>1788828036.632605</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>1976.715511284645</v>
+        <v>1789.31819632382</v>
       </c>
       <c r="C384" t="n">
-        <v>1976715511.284645</v>
+        <v>1789318196.32382</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>1977.608005630316</v>
+        <v>1789.806381716306</v>
       </c>
       <c r="C385" t="n">
-        <v>1977608005.630316</v>
+        <v>1789806381.716306</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>1978.497079465794</v>
+        <v>1790.29260918276</v>
       </c>
       <c r="C386" t="n">
-        <v>1978497079.465794</v>
+        <v>1790292609.18276</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>1979.382760428947</v>
+        <v>1790.776894890869</v>
       </c>
       <c r="C387" t="n">
-        <v>1979382760.428947</v>
+        <v>1790776894.890869</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>1980.265075817932</v>
+        <v>1791.259254806734</v>
       </c>
       <c r="C388" t="n">
-        <v>1980265075.817932</v>
+        <v>1791259254.806734</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>1981.144052596789</v>
+        <v>1791.739704698223</v>
       </c>
       <c r="C389" t="n">
-        <v>1981144052.596789</v>
+        <v>1791739704.698224</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>1982.019717400919</v>
+        <v>1792.218260138262</v>
       </c>
       <c r="C390" t="n">
-        <v>1982019717.400919</v>
+        <v>1792218260.138262</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>1982.892096542454</v>
+        <v>1792.694936508045</v>
       </c>
       <c r="C391" t="n">
-        <v>1982892096.542454</v>
+        <v>1792694936.508045</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>1983.761216015509</v>
+        <v>1793.169749000193</v>
       </c>
       <c r="C392" t="n">
-        <v>1983761216.015509</v>
+        <v>1793169749.000193</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>1984.627101501336</v>
+        <v>1793.642712621834</v>
       </c>
       <c r="C393" t="n">
-        <v>1984627101.501336</v>
+        <v>1793642712.621834</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>1985.489778373365</v>
+        <v>1794.113842197631</v>
       </c>
       <c r="C394" t="n">
-        <v>1985489778.373365</v>
+        <v>1794113842.197631</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>1986.349271702152</v>
+        <v>1794.58315237274</v>
       </c>
       <c r="C395" t="n">
-        <v>1986349271.702152</v>
+        <v>1794583152.37274</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>1987.205606260221</v>
+        <v>1795.050657615714</v>
       </c>
       <c r="C396" t="n">
-        <v>1987205606.260221</v>
+        <v>1795050657.615715</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>1988.05880652681</v>
+        <v>1795.516372221347</v>
       </c>
       <c r="C397" t="n">
-        <v>1988058806.52681</v>
+        <v>1795516372.221347</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>1988.908896692527</v>
+        <v>1795.980310313457</v>
       </c>
       <c r="C398" t="n">
-        <v>1988908896.692527</v>
+        <v>1795980310.313457</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>1989.755900663908</v>
+        <v>1796.442485847618</v>
       </c>
       <c r="C399" t="n">
-        <v>1989755900.663908</v>
+        <v>1796442485.847618</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>1990.599842067885</v>
+        <v>1796.902912613837</v>
       </c>
       <c r="C400" t="n">
-        <v>1990599842.067884</v>
+        <v>1796902912.613837</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>1991.440744256172</v>
+        <v>1797.361604239173</v>
       </c>
       <c r="C401" t="n">
-        <v>1991440744.256172</v>
+        <v>1797361604.239173</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>1992.27863030956</v>
+        <v>1797.818574190313</v>
       </c>
       <c r="C402" t="n">
-        <v>1992278630.30956</v>
+        <v>1797818574.190313</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>1993.113523042128</v>
+        <v>1798.273835776087</v>
       </c>
       <c r="C403" t="n">
-        <v>1993113523.042128</v>
+        <v>1798273835.776087</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>1993.945445005372</v>
+        <v>1798.727402149941</v>
       </c>
       <c r="C404" t="n">
-        <v>1993945445.005372</v>
+        <v>1798727402.149941</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>1994.774418492258</v>
+        <v>1799.179286312359</v>
       </c>
       <c r="C405" t="n">
-        <v>1994774418.492258</v>
+        <v>1799179286.312359</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>1995.600465541193</v>
+        <v>1799.629501113239</v>
       </c>
       <c r="C406" t="n">
-        <v>1995600465.541193</v>
+        <v>1799629501.113239</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>1996.423607939917</v>
+        <v>1800.07805925422</v>
       </c>
       <c r="C407" t="n">
-        <v>1996423607.939917</v>
+        <v>1800078059.25422</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>1997.24386722933</v>
+        <v>1800.524973290967</v>
       </c>
       <c r="C408" t="n">
-        <v>1997243867.22933</v>
+        <v>1800524973.290967</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>1998.061264707236</v>
+        <v>1800.970255635415</v>
       </c>
       <c r="C409" t="n">
-        <v>1998061264.707236</v>
+        <v>1800970255.635415</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>1998.875821432018</v>
+        <v>1801.413918557957</v>
       </c>
       <c r="C410" t="n">
-        <v>1998875821.432018</v>
+        <v>1801413918.557957</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>1999.687558226251</v>
+        <v>1801.855974189609</v>
       </c>
       <c r="C411" t="n">
-        <v>1999687558.226251</v>
+        <v>1801855974.189609</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2000.496495680235</v>
+        <v>1802.296434524119</v>
       </c>
       <c r="C412" t="n">
-        <v>2000496495.680235</v>
+        <v>1802296434.524119</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2001.302654155471</v>
+        <v>1802.73531142004</v>
       </c>
       <c r="C413" t="n">
-        <v>2001302654.155471</v>
+        <v>1802735311.420041</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2002.106053788068</v>
+        <v>1803.172616602772</v>
       </c>
       <c r="C414" t="n">
-        <v>2002106053.788068</v>
+        <v>1803172616.602772</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2002.906714492085</v>
+        <v>1803.608361666549</v>
       </c>
       <c r="C415" t="n">
-        <v>2002906714.492085</v>
+        <v>1803608361.666549</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2003.704655962817</v>
+        <v>1804.042558076406</v>
       </c>
       <c r="C416" t="n">
-        <v>2003704655.962817</v>
+        <v>1804042558.076406</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2004.499897680013</v>
+        <v>1804.475217170098</v>
       </c>
       <c r="C417" t="n">
-        <v>2004499897.680013</v>
+        <v>1804475217.170098</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2005.292458911037</v>
+        <v>1804.90635015999</v>
       </c>
       <c r="C418" t="n">
-        <v>2005292458.911037</v>
+        <v>1804906350.15999</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2006.082358713976</v>
+        <v>1805.335968134904</v>
       </c>
       <c r="C419" t="n">
-        <v>2006082358.713976</v>
+        <v>1805335968.134904</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2006.869615940682</v>
+        <v>1805.764082061943</v>
       </c>
       <c r="C420" t="n">
-        <v>2006869615.940682</v>
+        <v>1805764082.061943</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2007.654249239767</v>
+        <v>1806.190702788271</v>
       </c>
       <c r="C421" t="n">
-        <v>2007654249.239767</v>
+        <v>1806190702.78827</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2008.436277059537</v>
+        <v>1806.615841042866</v>
       </c>
       <c r="C422" t="n">
-        <v>2008436277.059537</v>
+        <v>1806615841.042866</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2009.215717650882</v>
+        <v>1807.039507438242</v>
       </c>
       <c r="C423" t="n">
-        <v>2009215717.650882</v>
+        <v>1807039507.438242</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2009.992589070097</v>
+        <v>1807.461712472135</v>
       </c>
       <c r="C424" t="n">
-        <v>2009992589.070097</v>
+        <v>1807461712.472135</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2010.766909181676</v>
+        <v>1807.882466529159</v>
       </c>
       <c r="C425" t="n">
-        <v>2010766909.181676</v>
+        <v>1807882466.529159</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2011.538695661032</v>
+        <v>1808.301779882441</v>
       </c>
       <c r="C426" t="n">
-        <v>2011538695.661032</v>
+        <v>1808301779.882441</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2012.307965997189</v>
+        <v>1808.719662695212</v>
       </c>
       <c r="C427" t="n">
-        <v>2012307965.997189</v>
+        <v>1808719662.695212</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2013.07473749541</v>
+        <v>1809.136125022382</v>
       </c>
       <c r="C428" t="n">
-        <v>2013074737.49541</v>
+        <v>1809136125.022382</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2013.839027279787</v>
+        <v>1809.551176812083</v>
       </c>
       <c r="C429" t="n">
-        <v>2013839027.279787</v>
+        <v>1809551176.812083</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2014.600852295786</v>
+        <v>1809.964827907176</v>
       </c>
       <c r="C430" t="n">
-        <v>2014600852.295786</v>
+        <v>1809964827.907176</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2015.360229312744</v>
+        <v>1810.377088046749</v>
       </c>
       <c r="C431" t="n">
-        <v>2015360229.312744</v>
+        <v>1810377088.046749</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2016.117174926321</v>
+        <v>1810.787966867572</v>
       </c>
       <c r="C432" t="n">
-        <v>2016117174.926321</v>
+        <v>1810787966.867572</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2016.871705560915</v>
+        <v>1811.197473905533</v>
       </c>
       <c r="C433" t="n">
-        <v>2016871705.560915</v>
+        <v>1811197473.905533</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2017.623837472027</v>
+        <v>1811.605618597053</v>
       </c>
       <c r="C434" t="n">
-        <v>2017623837.472027</v>
+        <v>1811605618.597053</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2018.373586748595</v>
+        <v>1812.012410280468</v>
       </c>
       <c r="C435" t="n">
-        <v>2018373586.748595</v>
+        <v>1812012410.280468</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2019.120969315276</v>
+        <v>1812.41785819739</v>
       </c>
       <c r="C436" t="n">
-        <v>2019120969.315276</v>
+        <v>1812417858.19739</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2019.866000934701</v>
+        <v>1812.82197149405</v>
       </c>
       <c r="C437" t="n">
-        <v>2019866000.934701</v>
+        <v>1812821971.49405</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2020.608697209679</v>
+        <v>1813.22475922261</v>
       </c>
       <c r="C438" t="n">
-        <v>2020608697.209679</v>
+        <v>1813224759.22261</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2021.349073585377</v>
+        <v>1813.626230342454</v>
       </c>
       <c r="C439" t="n">
-        <v>2021349073.585377</v>
+        <v>1813626230.342454</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2022.087145351447</v>
+        <v>1814.026393721461</v>
       </c>
       <c r="C440" t="n">
-        <v>2022087145.351447</v>
+        <v>1814026393.721461</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2022.822927644133</v>
+        <v>1814.425258137253</v>
       </c>
       <c r="C441" t="n">
-        <v>2022822927.644133</v>
+        <v>1814425258.137253</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2023.55643544833</v>
+        <v>1814.822832278422</v>
       </c>
       <c r="C442" t="n">
-        <v>2023556435.44833</v>
+        <v>1814822832.278422</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2024.287683599616</v>
+        <v>1815.219124745734</v>
       </c>
       <c r="C443" t="n">
-        <v>2024287683.599616</v>
+        <v>1815219124.745733</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2025.016686786243</v>
+        <v>1815.614144053319</v>
       </c>
       <c r="C444" t="n">
-        <v>2025016686.786243</v>
+        <v>1815614144.053319</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2025.743459551103</v>
+        <v>1816.007898629834</v>
       </c>
       <c r="C445" t="n">
-        <v>2025743459.551103</v>
+        <v>1816007898.629834</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2026.468016293656</v>
+        <v>1816.400396819612</v>
       </c>
       <c r="C446" t="n">
-        <v>2026468016.293656</v>
+        <v>1816400396.819612</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2027.190371271824</v>
+        <v>1816.791646883784</v>
       </c>
       <c r="C447" t="n">
-        <v>2027190371.271824</v>
+        <v>1816791646.883784</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2027.910538603858</v>
+        <v>1817.181657001394</v>
       </c>
       <c r="C448" t="n">
-        <v>2027910538.603858</v>
+        <v>1817181657.001394</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2028.628532270176</v>
+        <v>1817.570435270484</v>
       </c>
       <c r="C449" t="n">
-        <v>2028628532.270176</v>
+        <v>1817570435.270484</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2029.344366115161</v>
+        <v>1817.957989709168</v>
       </c>
       <c r="C450" t="n">
-        <v>2029344366.115161</v>
+        <v>1817957989.709168</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2030.058053848941</v>
+        <v>1818.344328256683</v>
       </c>
       <c r="C451" t="n">
-        <v>2030058053.848941</v>
+        <v>1818344328.256683</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2030.769609049132</v>
+        <v>1818.72945877443</v>
       </c>
       <c r="C452" t="n">
-        <v>2030769609.049132</v>
+        <v>1818729458.77443</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2031.479045162559</v>
+        <v>1819.113389046992</v>
       </c>
       <c r="C453" t="n">
-        <v>2031479045.162559</v>
+        <v>1819113389.046992</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2032.186375506938</v>
+        <v>1819.496126783134</v>
       </c>
       <c r="C454" t="n">
-        <v>2032186375.506938</v>
+        <v>1819496126.783134</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2032.89161327255</v>
+        <v>1819.877679616794</v>
       </c>
       <c r="C455" t="n">
-        <v>2032891613.27255</v>
+        <v>1819877679.616794</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2033.594771523863</v>
+        <v>1820.258055108051</v>
       </c>
       <c r="C456" t="n">
-        <v>2033594771.523863</v>
+        <v>1820258055.108051</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2034.295863201152</v>
+        <v>1820.637260744079</v>
       </c>
       <c r="C457" t="n">
-        <v>2034295863.201152</v>
+        <v>1820637260.744079</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2034.994901122076</v>
+        <v>1821.01530394009</v>
       </c>
       <c r="C458" t="n">
-        <v>2034994901.122076</v>
+        <v>1821015303.94009</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2035.691897983239</v>
+        <v>1821.392192040254</v>
       </c>
       <c r="C459" t="n">
-        <v>2035691897.983239</v>
+        <v>1821392192.040254</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2036.386866361722</v>
+        <v>1821.76793231861</v>
       </c>
       <c r="C460" t="n">
-        <v>2036386866.361722</v>
+        <v>1821767932.31861</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2037.079818716591</v>
+        <v>1822.142531979964</v>
       </c>
       <c r="C461" t="n">
-        <v>2037079818.716591</v>
+        <v>1822142531.979964</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2037.770767390385</v>
+        <v>1822.515998160761</v>
       </c>
       <c r="C462" t="n">
-        <v>2037770767.390385</v>
+        <v>1822515998.160761</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2038.459724610576</v>
+        <v>1822.888337929964</v>
       </c>
       <c r="C463" t="n">
-        <v>2038459724.610576</v>
+        <v>1822888337.929964</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2039.146702491004</v>
+        <v>1823.259558289894</v>
       </c>
       <c r="C464" t="n">
-        <v>2039146702.491004</v>
+        <v>1823259558.289894</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2039.831713033301</v>
+        <v>1823.62966617708</v>
       </c>
       <c r="C465" t="n">
-        <v>2039831713.033301</v>
+        <v>1823629666.17708</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2040.514768128279</v>
+        <v>1823.998668463077</v>
       </c>
       <c r="C466" t="n">
-        <v>2040514768.128279</v>
+        <v>1823998668.463077</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2041.195879557303</v>
+        <v>1824.366571955284</v>
       </c>
       <c r="C467" t="n">
-        <v>2041195879.557303</v>
+        <v>1824366571.955284</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2041.875058993645</v>
+        <v>1824.733383397745</v>
       </c>
       <c r="C468" t="n">
-        <v>2041875058.993645</v>
+        <v>1824733383.397745</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2042.55231800381</v>
+        <v>1825.099109471932</v>
       </c>
       <c r="C469" t="n">
-        <v>2042552318.00381</v>
+        <v>1825099109.471932</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2043.227668048849</v>
+        <v>1825.463756797526</v>
       </c>
       <c r="C470" t="n">
-        <v>2043227668.048849</v>
+        <v>1825463756.797526</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2043.901120485649</v>
+        <v>1825.827331933177</v>
       </c>
       <c r="C471" t="n">
-        <v>2043901120.485649</v>
+        <v>1825827331.933177</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2044.572686568197</v>
+        <v>1826.18984137726</v>
       </c>
       <c r="C472" t="n">
-        <v>2044572686.568197</v>
+        <v>1826189841.37726</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2045.242377448839</v>
+        <v>1826.551291568609</v>
       </c>
       <c r="C473" t="n">
-        <v>2045242377.448839</v>
+        <v>1826551291.568609</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2045.910204179503</v>
+        <v>1826.911688887253</v>
       </c>
       <c r="C474" t="n">
-        <v>2045910204.179503</v>
+        <v>1826911688.887253</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2046.576177712918</v>
+        <v>1827.271039655129</v>
       </c>
       <c r="C475" t="n">
-        <v>2046576177.712919</v>
+        <v>1827271039.655129</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2047.240308903805</v>
+        <v>1827.62935013679</v>
       </c>
       <c r="C476" t="n">
-        <v>2047240308.903805</v>
+        <v>1827629350.13679</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2047.902608510055</v>
+        <v>1827.986626540103</v>
       </c>
       <c r="C477" t="n">
-        <v>2047902608.510055</v>
+        <v>1827986626.540103</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2048.563087193883</v>
+        <v>1828.342875016931</v>
       </c>
       <c r="C478" t="n">
-        <v>2048563087.193883</v>
+        <v>1828342875.016931</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2049.221755522978</v>
+        <v>1828.698101663812</v>
       </c>
       <c r="C479" t="n">
-        <v>2049221755.522978</v>
+        <v>1828698101.663812</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2049.878623971618</v>
+        <v>1829.05231252262</v>
       </c>
       <c r="C480" t="n">
-        <v>2049878623.971618</v>
+        <v>1829052312.52262</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2050.533702921784</v>
+        <v>1829.405513581225</v>
       </c>
       <c r="C481" t="n">
-        <v>2050533702.921784</v>
+        <v>1829405513.581225</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2051.187002664247</v>
+        <v>1829.757710774132</v>
       </c>
       <c r="C482" t="n">
-        <v>2051187002.664247</v>
+        <v>1829757710.774132</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2051.838533399644</v>
+        <v>1830.108909983122</v>
       </c>
       <c r="C483" t="n">
-        <v>2051838533.399644</v>
+        <v>1830108909.983122</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2052.48830523954</v>
+        <v>1830.459117037875</v>
       </c>
       <c r="C484" t="n">
-        <v>2052488305.23954</v>
+        <v>1830459117.037875</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2053.136328207464</v>
+        <v>1830.80833771659</v>
       </c>
       <c r="C485" t="n">
-        <v>2053136328.207464</v>
+        <v>1830808337.71659</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2053.782612239946</v>
+        <v>1831.156577746586</v>
       </c>
       <c r="C486" t="n">
-        <v>2053782612.239946</v>
+        <v>1831156577.746586</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2054.427167187523</v>
+        <v>1831.503842804909</v>
       </c>
       <c r="C487" t="n">
-        <v>2054427167.187523</v>
+        <v>1831503842.804909</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2055.070002815739</v>
+        <v>1831.850138518917</v>
       </c>
       <c r="C488" t="n">
-        <v>2055070002.815739</v>
+        <v>1831850138.518917</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2055.711128806134</v>
+        <v>1832.195470466861</v>
       </c>
       <c r="C489" t="n">
-        <v>2055711128.806134</v>
+        <v>1832195470.466861</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2056.350554757204</v>
+        <v>1832.53984417846</v>
       </c>
       <c r="C490" t="n">
-        <v>2056350554.757204</v>
+        <v>1832539844.17846</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2056.988290185363</v>
+        <v>1832.883265135464</v>
       </c>
       <c r="C491" t="n">
-        <v>2056988290.185364</v>
+        <v>1832883265.135464</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2057.624344525885</v>
+        <v>1833.22573877221</v>
       </c>
       <c r="C492" t="n">
-        <v>2057624344.525885</v>
+        <v>1833225738.77221</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2058.891447284951</v>
+        <v>1833.907865588499</v>
       </c>
       <c r="C493" t="n">
-        <v>2058891447.284951</v>
+        <v>1833907865.588499</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2060.151936928679</v>
+        <v>1834.586267174406</v>
       </c>
       <c r="C494" t="n">
-        <v>2060151936.928679</v>
+        <v>1834586267.174406</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2061.405886111111</v>
+        <v>1835.260985352681</v>
       </c>
       <c r="C495" t="n">
-        <v>2061405886.111111</v>
+        <v>1835260985.352681</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2062.653366273897</v>
+        <v>1835.932061238173</v>
       </c>
       <c r="C496" t="n">
-        <v>2062653366.273897</v>
+        <v>1835932061.238173</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2063.894447673361</v>
+        <v>1836.599535253805</v>
       </c>
       <c r="C497" t="n">
-        <v>2063894447.673361</v>
+        <v>1836599535.253805</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2065.129199406809</v>
+        <v>1837.263447146091</v>
       </c>
       <c r="C498" t="n">
-        <v>2065129199.406809</v>
+        <v>1837263447.146091</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2066.357689438108</v>
+        <v>1837.923836000228</v>
       </c>
       <c r="C499" t="n">
-        <v>2066357689.438108</v>
+        <v>1837923836.000228</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2067.579984622558</v>
+        <v>1838.580740254759</v>
       </c>
       <c r="C500" t="n">
-        <v>2067579984.622558</v>
+        <v>1838580740.254759</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2068.796150731087</v>
+        <v>1839.234197715836</v>
       </c>
       <c r="C501" t="n">
-        <v>2068796150.731087</v>
+        <v>1839234197.715837</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2070.006252473782</v>
+        <v>1839.884245571091</v>
       </c>
       <c r="C502" t="n">
-        <v>2070006252.473782</v>
+        <v>1839884245.57109</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2071.210353522779</v>
+        <v>1840.530920403121</v>
       </c>
       <c r="C503" t="n">
-        <v>2071210353.522779</v>
+        <v>1840530920.403121</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2072.408516534545</v>
+        <v>1841.174258202619</v>
       </c>
       <c r="C504" t="n">
-        <v>2072408516.534545</v>
+        <v>1841174258.202619</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2073.60080317155</v>
+        <v>1841.814294381134</v>
       </c>
       <c r="C505" t="n">
-        <v>2073600803.17155</v>
+        <v>1841814294.381134</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2074.787274123375</v>
+        <v>1842.451063783503</v>
       </c>
       <c r="C506" t="n">
-        <v>2074787274.123374</v>
+        <v>1842451063.783503</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2075.967989127244</v>
+        <v>1843.084600699937</v>
       </c>
       <c r="C507" t="n">
-        <v>2075967989.127244</v>
+        <v>1843084600.699937</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2077.143006988027</v>
+        <v>1843.714938877794</v>
       </c>
       <c r="C508" t="n">
-        <v>2077143006.988027</v>
+        <v>1843714938.877794</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2078.312385597716</v>
+        <v>1844.342111533039</v>
       </c>
       <c r="C509" t="n">
-        <v>2078312385.597717</v>
+        <v>1844342111.533039</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2079.476181954385</v>
+        <v>1844.966151361399</v>
       </c>
       <c r="C510" t="n">
-        <v>2079476181.954385</v>
+        <v>1844966151.361399</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2080.634452180662</v>
+        <v>1845.587090549228</v>
       </c>
       <c r="C511" t="n">
-        <v>2080634452.180662</v>
+        <v>1845587090.549228</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2081.787251541729</v>
+        <v>1846.204960784091</v>
       </c>
       <c r="C512" t="n">
-        <v>2081787251.541729</v>
+        <v>1846204960.784091</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2082.934634462852</v>
+        <v>1846.819793265069</v>
       </c>
       <c r="C513" t="n">
-        <v>2082934634.462852</v>
+        <v>1846819793.265069</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2084.076654546466</v>
+        <v>1847.431618712802</v>
       </c>
       <c r="C514" t="n">
-        <v>2084076654.546466</v>
+        <v>1847431618.712802</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2085.213364588823</v>
+        <v>1848.040467379274</v>
       </c>
       <c r="C515" t="n">
-        <v>2085213364.588823</v>
+        <v>1848040467.379274</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2086.344816596226</v>
+        <v>1848.646369057346</v>
       </c>
       <c r="C516" t="n">
-        <v>2086344816.596226</v>
+        <v>1848646369.057346</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2087.471061800846</v>
+        <v>1849.249353090051</v>
       </c>
       <c r="C517" t="n">
-        <v>2087471061.800846</v>
+        <v>1849249353.090051</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2088.592150676143</v>
+        <v>1849.849448379649</v>
       </c>
       <c r="C518" t="n">
-        <v>2088592150.676143</v>
+        <v>1849849448.379649</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2089.708132951916</v>
+        <v>1850.446683396463</v>
       </c>
       <c r="C519" t="n">
-        <v>2089708132.951916</v>
+        <v>1850446683.396462</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2090.819057628958</v>
+        <v>1851.041086187479</v>
       </c>
       <c r="C520" t="n">
-        <v>2090819057.628958</v>
+        <v>1851041086.187479</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2091.924972993371</v>
+        <v>1851.632684384754</v>
       </c>
       <c r="C521" t="n">
-        <v>2091924972.993371</v>
+        <v>1851632684.384754</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2093.025926630517</v>
+        <v>1852.221505213594</v>
       </c>
       <c r="C522" t="n">
-        <v>2093025926.630517</v>
+        <v>1852221505.213594</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2095.213135642107</v>
+        <v>1853.390921681179</v>
       </c>
       <c r="C523" t="n">
-        <v>2095213135.642107</v>
+        <v>1853390921.681179</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2097.381051840953</v>
+        <v>1854.549545556371</v>
       </c>
       <c r="C524" t="n">
-        <v>2097381051.840953</v>
+        <v>1854549545.556371</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2099.530032030164</v>
+        <v>1855.697580788617</v>
       </c>
       <c r="C525" t="n">
-        <v>2099530032.030164</v>
+        <v>1855697580.788617</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2101.660423029276</v>
+        <v>1856.835225539566</v>
       </c>
       <c r="C526" t="n">
-        <v>2101660423.029276</v>
+        <v>1856835225.539566</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2103.772562046495</v>
+        <v>1857.962672401143</v>
       </c>
       <c r="C527" t="n">
-        <v>2103772562.046495</v>
+        <v>1857962672.401143</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2105.866777033666</v>
+        <v>1859.080108603422</v>
       </c>
       <c r="C528" t="n">
-        <v>2105866777.033667</v>
+        <v>1859080108.603422</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2107.94338702492</v>
+        <v>1860.187716212859</v>
       </c>
       <c r="C529" t="n">
-        <v>2107943387.02492</v>
+        <v>1860187716.212859</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2110.00270245989</v>
+        <v>1861.285672321417</v>
       </c>
       <c r="C530" t="n">
-        <v>2110002702.45989</v>
+        <v>1861285672.321417</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2112.045025492348</v>
+        <v>1862.374149227086</v>
       </c>
       <c r="C531" t="n">
-        <v>2112045025.492348</v>
+        <v>1862374149.227086</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2114.070650285036</v>
+        <v>1863.453314606267</v>
       </c>
       <c r="C532" t="n">
-        <v>2114070650.285036</v>
+        <v>1863453314.606267</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2116.079863291433</v>
+        <v>1864.523331678447</v>
       </c>
       <c r="C533" t="n">
-        <v>2116079863.291433</v>
+        <v>1864523331.678447</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2118.072943525147</v>
+        <v>1865.584359363586</v>
       </c>
       <c r="C534" t="n">
-        <v>2118072943.525147</v>
+        <v>1865584359.363586</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2120.050162817583</v>
+        <v>1866.636552432593</v>
       </c>
       <c r="C535" t="n">
-        <v>2120050162.817583</v>
+        <v>1866636552.432593</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2122.011786064495</v>
+        <v>1867.680061651257</v>
       </c>
       <c r="C536" t="n">
-        <v>2122011786.064495</v>
+        <v>1867680061.651257</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2123.95807146199</v>
+        <v>1868.715033917975</v>
       </c>
       <c r="C537" t="n">
-        <v>2123958071.46199</v>
+        <v>1868715033.917975</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2125.889270732534</v>
+        <v>1869.741612395587</v>
       </c>
       <c r="C538" t="n">
-        <v>2125889270.732534</v>
+        <v>1869741612.395587</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2127.805629341455</v>
+        <v>1870.759936637625</v>
       </c>
       <c r="C539" t="n">
-        <v>2127805629.341455</v>
+        <v>1870759936.637625</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2129.707386704418</v>
+        <v>1871.770142709257</v>
       </c>
       <c r="C540" t="n">
-        <v>2129707386.704418</v>
+        <v>1871770142.709257</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2131.594776386341</v>
+        <v>1872.772363303195</v>
       </c>
       <c r="C541" t="n">
-        <v>2131594776.386341</v>
+        <v>1872772363.303195</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2133.468026292148</v>
+        <v>1873.766727850808</v>
       </c>
       <c r="C542" t="n">
-        <v>2133468026.292148</v>
+        <v>1873766727.850808</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2135.327358849773</v>
+        <v>1874.753362628685</v>
       </c>
       <c r="C543" t="n">
-        <v>2135327358.849773</v>
+        <v>1874753362.628685</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2137.172991185794</v>
+        <v>1875.732390860872</v>
       </c>
       <c r="C544" t="n">
-        <v>2137172991.185794</v>
+        <v>1875732390.860872</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2139.005135294043</v>
+        <v>1876.703932816975</v>
       </c>
       <c r="C545" t="n">
-        <v>2139005135.294043</v>
+        <v>1876703932.816975</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2140.823998197532</v>
+        <v>1877.668105906361</v>
       </c>
       <c r="C546" t="n">
-        <v>2140823998.197532</v>
+        <v>1877668105.906361</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2142.62978210401</v>
+        <v>1878.6250247686</v>
       </c>
       <c r="C547" t="n">
-        <v>2142629782.10401</v>
+        <v>1878625024.7686</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2144.422684555449</v>
+        <v>1879.574801360372</v>
       </c>
       <c r="C548" t="n">
-        <v>2144422684.555449</v>
+        <v>1879574801.360372</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2146.202898571751</v>
+        <v>1880.517545038959</v>
       </c>
       <c r="C549" t="n">
-        <v>2146202898.571751</v>
+        <v>1880517545.038959</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2147.970612788927</v>
+        <v>1881.453362642528</v>
       </c>
       <c r="C550" t="n">
-        <v>2147970612.788927</v>
+        <v>1881453362.642528</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2149.726011592016</v>
+        <v>1882.382358567304</v>
       </c>
       <c r="C551" t="n">
-        <v>2149726011.592016</v>
+        <v>1882382358.567303</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2151.469275242981</v>
+        <v>1883.304634841822</v>
       </c>
       <c r="C552" t="n">
-        <v>2151469275.24298</v>
+        <v>1883304634.841822</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2153.200580003796</v>
+        <v>1884.220291198357</v>
       </c>
       <c r="C553" t="n">
-        <v>2153200580.003796</v>
+        <v>1884220291.198357</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2154.920098254965</v>
+        <v>1885.129425141677</v>
       </c>
       <c r="C554" t="n">
-        <v>2154920098.254965</v>
+        <v>1885129425.141677</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2156.627998609646</v>
+        <v>1886.032132015234</v>
       </c>
       <c r="C555" t="n">
-        <v>2156627998.609646</v>
+        <v>1886032132.015234</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2158.324446023601</v>
+        <v>1886.928505064902</v>
       </c>
       <c r="C556" t="n">
-        <v>2158324446.023602</v>
+        <v>1886928505.064902</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2160.009601901137</v>
+        <v>1887.818635500385</v>
       </c>
       <c r="C557" t="n">
-        <v>2160009601.901137</v>
+        <v>1887818635.500385</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2161.683624197219</v>
+        <v>1888.702612554374</v>
       </c>
       <c r="C558" t="n">
-        <v>2161683624.197219</v>
+        <v>1888702612.554374</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2163.346667515927</v>
+        <v>1889.58052353958</v>
       </c>
       <c r="C559" t="n">
-        <v>2163346667.515926</v>
+        <v>1889580523.53958</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2164.998883205394</v>
+        <v>1890.452453903706</v>
       </c>
       <c r="C560" t="n">
-        <v>2164998883.205394</v>
+        <v>1890452453.903706</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2166.640419449404</v>
+        <v>1891.318487282464</v>
       </c>
       <c r="C561" t="n">
-        <v>2166640419.449404</v>
+        <v>1891318487.282464</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2168.27142135576</v>
+        <v>1892.178705550718</v>
       </c>
       <c r="C562" t="n">
-        <v>2168271421.35576</v>
+        <v>1892178705.550718</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2169.892031041584</v>
+        <v>1893.033188871824</v>
       </c>
       <c r="C563" t="n">
-        <v>2169892031.041584</v>
+        <v>1893033188.871824</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2171.502387715654</v>
+        <v>1893.882015745257</v>
       </c>
       <c r="C564" t="n">
-        <v>2171502387.715653</v>
+        <v>1893882015.745257</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2173.102627757926</v>
+        <v>1894.725263052577</v>
       </c>
       <c r="C565" t="n">
-        <v>2173102627.757926</v>
+        <v>1894725263.052577</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2174.692884796331</v>
+        <v>1895.563006101824</v>
       </c>
       <c r="C566" t="n">
-        <v>2174692884.796331</v>
+        <v>1895563006.101824</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2176.273289780975</v>
+        <v>1896.395318670388</v>
       </c>
       <c r="C567" t="n">
-        <v>2176273289.780975</v>
+        <v>1896395318.670388</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2177.843971055839</v>
+        <v>1897.222273046427</v>
       </c>
       <c r="C568" t="n">
-        <v>2177843971.055839</v>
+        <v>1897222273.046427</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2179.405054428087</v>
+        <v>1898.043940068894</v>
       </c>
       <c r="C569" t="n">
-        <v>2179405054.428087</v>
+        <v>1898043940.068894</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2180.956663235072</v>
+        <v>1898.860389166216</v>
       </c>
       <c r="C570" t="n">
-        <v>2180956663.235073</v>
+        <v>1898860389.166216</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2182.49891840913</v>
+        <v>1899.671688393691</v>
       </c>
       <c r="C571" t="n">
-        <v>2182498918.40913</v>
+        <v>1899671688.393691</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2184.031938540253</v>
+        <v>1900.477904469652</v>
       </c>
       <c r="C572" t="n">
-        <v>2184031938.540253</v>
+        <v>1900477904.469652</v>
       </c>
     </row>
   </sheetData>
